--- a/Middle_Assignment/Assignment4/Le Thi Hoa_TestCase_4.xlsx
+++ b/Middle_Assignment/Assignment4/Le Thi Hoa_TestCase_4.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="246">
   <si>
     <t>Common Checklist</t>
   </si>
@@ -173,126 +173,132 @@
     <t>1.Validation</t>
   </si>
   <si>
-    <t>1.1 Full name</t>
-  </si>
-  <si>
-    <t>Check default value of  Full name filed</t>
-  </si>
-  <si>
-    <t>1. Observe default value of  Full name filed</t>
-  </si>
-  <si>
-    <t>1.1 Default value of Full name is blank
+    <t>1.1 Full Name</t>
+  </si>
+  <si>
+    <t>Check default value of  Full Name filed</t>
+  </si>
+  <si>
+    <t>1. Observe default value of  Full Name filed</t>
+  </si>
+  <si>
+    <t>1.1 Default value of Full Name is blank
 1.2 Place holder is "First Last"</t>
   </si>
   <si>
     <t>Check required Full Name field</t>
   </si>
   <si>
-    <t>1. Let Full name data is blank
+    <t xml:space="preserve">1. Let Full Name data is blank
 2. Input valid data into all other fields
-3. Click button save</t>
-  </si>
-  <si>
-    <t>Error message 1: "Please enter your Full name" show under this box</t>
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>3. Error message: "Please enter your Full Name" show under this box</t>
   </si>
   <si>
     <t>Check the Full Name when input &lt;  2 characters (1 character)</t>
   </si>
   <si>
-    <t>1. Enter the Full name field has &lt; 2 characters: 1
+    <t xml:space="preserve">1. Enter the Full Name field has &lt; 2 characters into Full Name field
 2. Input valid data on others field
-3. Click button save</t>
-  </si>
-  <si>
-    <t>Error message 2: "The name length should be 2-50 characters" show under this box</t>
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>3. Error message: "The name length should be 2-50 characters" show under this box</t>
   </si>
   <si>
     <t>Check the Full Name when input =  2 characters</t>
   </si>
   <si>
-    <t>1. Enter the Full name field has 2 characters: 12
+    <t xml:space="preserve">1. Enter the Full Name field has 2 characters into Full Name field
 2. Input valid data into all other fields
-3. Click button save</t>
-  </si>
-  <si>
-    <t>Save successful and close the add new address screen
-New address will be displayed on the top of Address book (screen)</t>
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>3.1 Save successful and close the add new address screen
+3.2 New address will be displayed on the top of Address book (screen)</t>
   </si>
   <si>
     <t>Check the Full Name when input character form  2 to 50 character</t>
   </si>
   <si>
-    <t>1. Enter the Full name field has from 2 to 50 characters: 123
+    <t xml:space="preserve">1. Enter the Full Name field has from 2 to 50 characters
 2. Input valid data into all other fields
-3. Click button save</t>
+3. Click Save button </t>
   </si>
   <si>
     <t>Check the Full Name when input =  50 characters</t>
   </si>
   <si>
-    <t>1. Enter the Full name field has 50 characters.
+    <t xml:space="preserve">1. Enter the Full Name field has 50 charactersinto Full Name field.
 2. Input valid data into all other fields
-3. Click button save</t>
+3. Click Save button </t>
   </si>
   <si>
     <t>Check the Full Name when input &gt;  50 characters</t>
   </si>
   <si>
-    <t>1. Enter the Full name field has &gt; 50 characters
+    <t xml:space="preserve">1. Enter the Full Name field has &gt; 50 characters into Full Name field
 2. Input valid data into all other fields
-3. Click button save</t>
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>3. Save fail and error message: "The name length should be 2-50 characters" show under this box</t>
   </si>
   <si>
     <t>Check Full Name when input special characters</t>
   </si>
   <si>
-    <t>1. Enter special characters
+    <t xml:space="preserve">1. Enter special characters into Full Name field
 2. Input valid data into all other fields
-3. Click button save</t>
-  </si>
-  <si>
-    <t>Error message: "Name should contain alphabetic and numeric
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>3. Save fail and error message: "Name should contain alphabetic and numeric
 character" show under this box</t>
   </si>
   <si>
     <t>Check Full Name when input HTML code, JavaScript, SQL injection</t>
   </si>
   <si>
-    <t>1. Enter the Full name field is HTML code, JavaScript, SQL injection
+    <t xml:space="preserve">1. Enter the Full Name field is HTML code, JavaScript, SQL injection into Full Name field
 2. Input valid data into all other fields
-3. Click button save</t>
-  </si>
-  <si>
-    <t>Save successful and close the add new address screen
-New address will be displayed on the top of Address book (screen) with data inputted</t>
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>3.1 Save successful and close the add new address screen
+3.2 New address will be displayed on the top of Address book (screen) with data inputted</t>
   </si>
   <si>
     <t>Check automatically trim space</t>
   </si>
   <si>
-    <t>1. Enter the data has space:    Abc  123  
+    <t xml:space="preserve">1. Enter the data has space into Full Name field
 2. Input valid data into all other fields
-3. Click button save</t>
-  </si>
-  <si>
-    <t>Save successful and close the add new address screen
-New address will be displayed on the top of Address book (screen) with Full name is Abc  123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>3.1 Save successful, system auto trim space and close the add new address screen
+3.2 New address will be displayed on the top of Address book (screen)</t>
+  </si>
+  <si>
+    <t>Input:    ABC  123    
+Output: ABC  123</t>
   </si>
   <si>
     <t>Check clear data by clicking on X  icon</t>
   </si>
   <si>
-    <t>1. Enter the data: Abc 123
+    <t>1. Enter the data into Full Name field
 2. Input valid data into all other fields
 3. Click on the X icon</t>
   </si>
   <si>
-    <t>The Full Name field will be clear</t>
+    <t>1.The Full Name field will be clear</t>
+  </si>
+  <si>
+    <t>Abc 123</t>
   </si>
   <si>
     <t>Check allow copy/paste data into Full Name</t>
@@ -301,92 +307,109 @@
     <t>1. Copy/paste a string into Full Name field</t>
   </si>
   <si>
-    <t xml:space="preserve"> Full Name field display a string that you copied</t>
-  </si>
-  <si>
-    <t>1.2 Phone number</t>
-  </si>
-  <si>
-    <t>Check default value of  Phone number filed</t>
-  </si>
-  <si>
-    <t>1. Observe default value of  Phone number filed</t>
-  </si>
-  <si>
-    <t>1.1 Default value of  Phone number is blank
-1.2 Place holder is "Please enter your phone number"</t>
-  </si>
-  <si>
-    <t>Check required Phone number field</t>
-  </si>
-  <si>
-    <t>1. Let Phone number data is blank
+    <t>1. Full Name field display a string that you copied</t>
+  </si>
+  <si>
+    <t>1.2 Phone Number</t>
+  </si>
+  <si>
+    <t>Check default value of  Phone Number filed</t>
+  </si>
+  <si>
+    <t>1. Observe default value of  Phone Number filed</t>
+  </si>
+  <si>
+    <t>1.1 Default value of  Phone Number is blank
+1.2 Place holder is "Please enter your Phone Number"</t>
+  </si>
+  <si>
+    <t>Check required Phone Number field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Let Phone Number data is blank
 2. Input valid data into all other fields
-3. Click button save</t>
-  </si>
-  <si>
-    <t>Error message 2: "Please enter your Phone number" show under this box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check when the phone number is numeric and length &lt; 10 </t>
-  </si>
-  <si>
-    <t>1. Enter the Phone number field has 9 characters
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>3. Save fail and error message "Please enter your Phone Number" show under this box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check when the Phone Number is numeric and length &lt; 10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter the Phone Number has 9 characters
 2. Input valid data into all other fields
-3. Click button save</t>
-  </si>
-  <si>
-    <t>Error message 1: "The length of phone number should be 10 characters" show under this box</t>
-  </si>
-  <si>
-    <t>Check when the phone number is invalid with length = 10</t>
-  </si>
-  <si>
-    <t>1. Enter the Phone number field 
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>3. Save faild and error message : "The length of Phone Number should be 10 characters" show under this box</t>
+  </si>
+  <si>
+    <t>009999999</t>
+  </si>
+  <si>
+    <t>Check when the Phone Number is invalid with length = 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter invalid number into the Phone Number 
 2. Input valid data into all other fields
-3. Click button save</t>
-  </si>
-  <si>
-    <t>Error message: Please enter a valid phone number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the phone number is valid with length = 10 </t>
-  </si>
-  <si>
-    <t>Check Phone number when input HTML code, JavaScript, SQL injection</t>
-  </si>
-  <si>
-    <t>1. Enter the Phone number field is HTML code, JavaScript, SQL injection
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>3. Save fail and display error message: "Please enter a valid Phone number" under Phone number field</t>
+  </si>
+  <si>
+    <t>0099999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the Phone Number is valid with length = 10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter valid phone number into the Phone Number field 
 2. Input valid data into all other fields
-3. Click button save</t>
-  </si>
-  <si>
-    <t>Error message: "Please enter a valid phone number" show under this box</t>
-  </si>
-  <si>
-    <t>1. Enter the data has space: 096815  3353
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>0968153353</t>
+  </si>
+  <si>
+    <t>Check Phone Number when input HTML code, JavaScript, SQL injection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter the Phone Number field is HTML code, JavaScript, SQL injection into Phone Number field
 2. Input valid data into all other fields
-3. Click button save</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error message: "Please enter a valid phone number" show under this box when space in a middle </t>
-  </si>
-  <si>
-    <t>1. Enter the data: 0968153353
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>3. Save fail and error message: "Please enter a valid Phone Number" show under this box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter the data has space into the Phone Number field
+2. Input valid data into all other fields
+3. Click Save button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Save fail and error message: "Please enter a valid Phone Number" show under this box when space in a middle </t>
+  </si>
+  <si>
+    <t>096815  3353</t>
+  </si>
+  <si>
+    <t>1. Enter the data into Phone Number field
 2. Input valid data into all other fields
 3. Click on the X icon</t>
   </si>
   <si>
-    <t>The Phone number field will be clear</t>
-  </si>
-  <si>
-    <t>Check allow copy/paste data into Phone number</t>
-  </si>
-  <si>
-    <t>1. Copy/paste a string into Phone number field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Full Name field display a string that you copied.</t>
+    <t>3. The Phone Number field will be clear</t>
+  </si>
+  <si>
+    <t>Check allow copy/paste data into Phone Number</t>
+  </si>
+  <si>
+    <t>1. Copy/paste a string into Phone Number field</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Full Name field display a string that you copied.</t>
   </si>
   <si>
     <t>1.3 Address</t>
@@ -405,88 +428,101 @@
     <t>Check required Address field</t>
   </si>
   <si>
-    <t>1. Let Address data is blank
+    <t xml:space="preserve">1. Let Address data is blank
 2. Input valid data into all other fields
-3. Click button save</t>
-  </si>
-  <si>
-    <t>Error message 1: "Please enter your Address" show under this box</t>
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>3. Save fail and error message "Please enter your Address" show under this box</t>
   </si>
   <si>
     <t>Check the Address when input &lt; 5 characters (4 character)</t>
   </si>
   <si>
-    <t>1. Enter the Address field has &lt; 5 characters: ABC1
+    <t xml:space="preserve">1. Enter the Address field has &lt; 5 characters
 2. Input valid data into all other fields
-3. Click button save</t>
-  </si>
-  <si>
-    <t>Error message 1: "The address length should be 5-
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>3. Save fail and error message "The address length should be 5-
 350 characters" show under this box</t>
   </si>
   <si>
+    <t>ABC1</t>
+  </si>
+  <si>
     <t>Check the Address when input =  5 characters</t>
   </si>
   <si>
-    <t>1. Enter the Address field has 5 characters: ABC12
+    <t xml:space="preserve">1. Enter the Address field has 5 characters
 2. Input valid data into all other fields
-3. Click button save</t>
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>ABC12</t>
   </si>
   <si>
     <t>Check the Address when input character form  5 to 350 character</t>
   </si>
   <si>
-    <t>1. Enter the Address field has from 5 to 350 characters: ABC123
+    <t xml:space="preserve">1. Enter the Address field has from 5 to 350 characters
 2. Input valid data into all other fields
-3. Click button save</t>
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>ABC123</t>
   </si>
   <si>
     <t>Check the Address when input =  350 characters</t>
   </si>
   <si>
-    <t>1. Enter the Address field has 350 characters
+    <t xml:space="preserve">1. Enter the Address field has 350 characters
 2. Input valid data into all other fields
-3. Click button save</t>
+3. Click Save button </t>
   </si>
   <si>
     <t>Check the Address when input &gt;  350 characters</t>
   </si>
   <si>
-    <t>1. Enter the Address field has &gt; 350 characters
+    <t xml:space="preserve">1. Enter the Address field has &gt; 350 characters
 2. Input valid data into all other fields
-3. Click button save</t>
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>3. Save fail and error message "The address length should be 5-350 characters" show under this box</t>
   </si>
   <si>
     <t>Check Address when input special characters</t>
   </si>
   <si>
-    <t>Error message: "Address should contain alphabetic and numeric
+    <t xml:space="preserve">1. Enter special characters into Address field
+2. Input valid data into all other fields
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>3. Save fail and error message: "Address should contain alphabetic and numeric
 character" show under this box</t>
   </si>
   <si>
     <t>Check Address when input HTML code, JavaScript, SQL injection</t>
   </si>
   <si>
-    <t>1. Enter the Address field is HTML code, JavaScript, SQL injection
+    <t xml:space="preserve">1. Enter the Address field is HTML code, JavaScript, SQL injection into Address field
 2. Input valid data into all other fields
-3. Click button save</t>
-  </si>
-  <si>
-    <t>1. Enter the data has space:    ABC  123  
+3. Click Save button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter the data has space into Address field
 2. Input valid data into all other fields
-3. Click button save</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save successful and close the add new address screen
-New address will be displayed on the top of Address book (screen) with the Address field is ABC  123 </t>
-  </si>
-  <si>
-    <t>1. Enter the data has space
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>1. Enter the data into the Address field
 2. Input valid data into all other fields
 3. Click on the X icon</t>
   </si>
   <si>
-    <t>The Address field will be clear</t>
+    <t>1. The Address field will be clear</t>
   </si>
   <si>
     <t>Check allow copy/paste data into Address</t>
@@ -495,7 +531,7 @@
     <t>1. Copy/paste into Address field</t>
   </si>
   <si>
-    <t>Address field display a string that you copied.</t>
+    <t>1. Address field display a string that you copied.</t>
   </si>
   <si>
     <t>1.4 Province</t>
@@ -514,12 +550,12 @@
     <t xml:space="preserve">check mandatory field  </t>
   </si>
   <si>
-    <t>1. Let Province data is blank
+    <t xml:space="preserve">1. Let Province data is blank
 2. Input valid data into all other fields
-3. Click button save</t>
-  </si>
-  <si>
-    <t>Error message 1: " Please select your Province" show under this box</t>
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>3. Save fail and error message " Please select your Province" show under this box</t>
   </si>
   <si>
     <t>Check data display in the dropdown box -63 Province</t>
@@ -529,7 +565,7 @@
 2. Observe the dropdown box </t>
   </si>
   <si>
-    <t>Check available values of the Province dropdownlist
+    <t>2.1 Check available values of the Province dropdownlist
 - Display value: all Province
 - Sorting: Ascending</t>
   </si>
@@ -540,7 +576,7 @@
     <t>1. Select one Province</t>
   </si>
   <si>
-    <t>Province field display the selected value</t>
+    <t>1. Province field display the selected value</t>
   </si>
   <si>
     <t>Check Province dropdown value when select second value</t>
@@ -550,17 +586,17 @@
 2. Select the second Province</t>
   </si>
   <si>
-    <t>3.1 Province field is Single data 
-3.2 Province field display the second selected value</t>
+    <t>2.1 Province field is Single data 
+2.2 Province field display the second selected value</t>
   </si>
   <si>
     <t>Check Province dropdown list has a croll bar</t>
   </si>
   <si>
-    <t>1. Use scroll bar</t>
-  </si>
-  <si>
-    <t>The dropdown list has a scroll bar the user can scroll up, and down to see all values and choose by click</t>
+    <t>1. Use scroll bar of Province field</t>
+  </si>
+  <si>
+    <t>1. The dropdown list has a scroll bar the user can scroll up, and down to see all values and choose by click</t>
   </si>
   <si>
     <t>Check Province allow copy/paste character or not</t>
@@ -569,7 +605,7 @@
     <t>1. Copy/paste the value on the Province field</t>
   </si>
   <si>
-    <t>Text box is locked and this field just displays dropdown list so user cannot copy/paste</t>
+    <t>1. This box is locked and this field just displays dropdown list so user cannot copy/paste</t>
   </si>
   <si>
     <t>Check Province allow input character or not</t>
@@ -578,7 +614,7 @@
     <t>1. Input the value on the Province field</t>
   </si>
   <si>
-    <t>Text box is locked and this field just displays dropdown list so user cannot input</t>
+    <t>1. This box is locked and this field just displays dropdown list so user cannot input</t>
   </si>
   <si>
     <t>1.4 District</t>
@@ -594,12 +630,12 @@
 1.2 Place holder is "Please choice your District"</t>
   </si>
   <si>
-    <t>1. Let District data is blank
+    <t xml:space="preserve">1. Let District data is blank
 2. Input valid data into all other fields
-3. Click button save</t>
-  </si>
-  <si>
-    <t>Error message 1: " Please select your District" show under this box</t>
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>3.1 Save fail and error message " Please select your District" show under this box</t>
   </si>
   <si>
     <t>Check data display in the dropdown box</t>
@@ -608,7 +644,7 @@
     <t>1. Observe the dropdown box  of the Districts field</t>
   </si>
   <si>
-    <t>Check available values of the District dropdownlist
+    <t>1. Check available values of the District dropdownlist
 - Display value: all District
 - Sorting: Ascending</t>
   </si>
@@ -621,8 +657,8 @@
 </t>
   </si>
   <si>
-    <t>District field display a dropdown list including values belong to the selected Province.
-District field display the selected value</t>
+    <t>2.1 District field display a dropdown list including values belong to the selected Province.
+2.2 District field display the selected value</t>
   </si>
   <si>
     <t>Check District dropdown value when select second value</t>
@@ -630,17 +666,17 @@
   <si>
     <t>1. Select Province field
 2. Select the first District
-2. Select the second District</t>
-  </si>
-  <si>
-    <t>District field display a dropdown list including values belong to the selected Province.
-District field display the second selected value</t>
+3. Select the second District</t>
+  </si>
+  <si>
+    <t>3.1 District field display a dropdown list including values belong to the selected Province.
+3.2 District field display the second selected value</t>
   </si>
   <si>
     <t>Check District dropdown list has a croll bar</t>
   </si>
   <si>
-    <t xml:space="preserve"> The dropdown list has a scroll bar the user can scroll up, and down to see all values and choose by click</t>
+    <t>1. Use scroll bar of District field</t>
   </si>
   <si>
     <t>Check District allow copy/paste character or not</t>
@@ -649,10 +685,16 @@
     <t>1. Copy/paste the value on the District field</t>
   </si>
   <si>
+    <t>1.This box is locked and this field just displays dropdown list so user cannot copy/paste</t>
+  </si>
+  <si>
     <t>Check District allow input character or not</t>
   </si>
   <si>
     <t>1. Input the value on the District field</t>
+  </si>
+  <si>
+    <t>1.This box is locked and this field just displays dropdown list so user cannot input</t>
   </si>
   <si>
     <t>Check data displayed in the dropdown: Will be updated when Province value is changed</t>
@@ -663,7 +705,7 @@
 3. Change the Province</t>
   </si>
   <si>
-    <t>District field display the selected Province</t>
+    <t>3. District field display the selected Province</t>
   </si>
   <si>
     <t>Check the District when not selecting the Province field</t>
@@ -673,7 +715,7 @@
 2. Select one District</t>
   </si>
   <si>
-    <t>Save fail and display error message: Please select your Province"</t>
+    <t>2. Save fail and display error message: Please select your Province"</t>
   </si>
   <si>
     <t>1.5 Ward</t>
@@ -689,12 +731,15 @@
 1.2 Place holder is "Please choice your Ward"</t>
   </si>
   <si>
-    <t>1. Let Ward data is blank
+    <t xml:space="preserve">Check mandatory field  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Let Ward data is blank
 2. Input valid data into all other fields
-3. Click button save</t>
-  </si>
-  <si>
-    <t>Error message 1: " Please select your Ward" show under this box</t>
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>3. Save fail and error message " Please select your Ward" show under this box</t>
   </si>
   <si>
     <t>Check data display in the drop down box -63 Wards</t>
@@ -703,7 +748,7 @@
     <t>1. Observe the drop down box  of the Wards field</t>
   </si>
   <si>
-    <t>Check available values of the Ward dropdownlist
+    <t>1. Check available values of the Ward dropdownlist
 - Display value: all Wards
 - Sorting: Ascending</t>
   </si>
@@ -715,8 +760,8 @@
 2. Select one Wards</t>
   </si>
   <si>
-    <t>Ward field display a dropdown list including values belong to the selected District.
-Ward field display the selected value.</t>
+    <t>2.1 Ward field display a dropdown list including values belong to the selected District.
+2.2 Ward field display the selected value.</t>
   </si>
   <si>
     <t>Check Ward dropdown value when select second value</t>
@@ -727,11 +772,17 @@
 3. Select the second Wards</t>
   </si>
   <si>
-    <t>Ward field display a dropdown list including values belong to the selected District.
-Ward field display the second selected value</t>
+    <t>3.1 Ward field display a dropdown list including values belong to the selected District.
+3.2 Ward field display the second selected value</t>
   </si>
   <si>
     <t>Check Ward dropdown list has a croll bar</t>
+  </si>
+  <si>
+    <t>1. Use scroll bar of Ward field</t>
+  </si>
+  <si>
+    <t>3.1 The dropdown list has a scroll bar the user can scroll up, and down to see all values and choose by click</t>
   </si>
   <si>
     <t>Check Ward allow copy/paste character or not</t>
@@ -755,7 +806,7 @@
 3. Change the District</t>
   </si>
   <si>
-    <t>Ward values belong to the selected District</t>
+    <t>3. Ward values belong to the selected District</t>
   </si>
   <si>
     <t>Check the Ward when not selecting the District field</t>
@@ -767,9 +818,9 @@
 4. Click save button</t>
   </si>
   <si>
-    <t>Save fail and display error message:
-- If user do not select Province: "Please select your Province"
-- If user do not select District: "Please select your  District"</t>
+    <t>3. Save fail and display error message:
+- If user do not select Province: "Please select your Province" in the Province field
+- If user do not select District: "Please select your  District" in the Province</t>
   </si>
   <si>
     <t>1.6 "Select a label for effective delivery"</t>
@@ -781,8 +832,8 @@
     <t>1. Observe default value of "Select a label for effective delivery" filed</t>
   </si>
   <si>
-    <t xml:space="preserve">Default is Home button.
-Home button will be highlight </t>
+    <t xml:space="preserve">1.1 Default is Home button.
+1.2 Home button will be highlight </t>
   </si>
   <si>
     <t>Check Office button can be clickable</t>
@@ -791,7 +842,7 @@
     <t>1. Click on the Office button</t>
   </si>
   <si>
-    <t>Home button will not be highlight when select Office button</t>
+    <t>1. Home button will not be highlight when select Office button</t>
   </si>
   <si>
     <t>Check Home button can be clickable</t>
@@ -801,7 +852,7 @@
 2. Click on the Home Button</t>
   </si>
   <si>
-    <t>Office button will not be highlight when select Home button</t>
+    <t>1. Office button will not be highlight when select Home button</t>
   </si>
   <si>
     <t>2. Function</t>
@@ -810,75 +861,83 @@
     <t>Add new address successfully as Home</t>
   </si>
   <si>
+    <t xml:space="preserve">1. Input data on all field
+2. Select Home button 
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>3.1 New Address created successfully with Home delivery.
+3.2 New address will be displayed on the top of Address book (screen)</t>
+  </si>
+  <si>
+    <t>Add new address successfully as Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Input data on all field
+2. Select Office button 
+3. Click Save button </t>
+  </si>
+  <si>
+    <t>3.1 New Address created successfully with Office delivery
+3.2 New address will be displayed on the top of Address book (screen)</t>
+  </si>
+  <si>
+    <t>Add new address unsuccessfully when input invalid all fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Input data on all field with invalid
+2. Click Save button </t>
+  </si>
+  <si>
+    <t>3.1 New Address add unsuccessfully with error message display under all fields with the corresponding error</t>
+  </si>
+  <si>
+    <t>Check function when on Cancel button with inputted all fields</t>
+  </si>
+  <si>
     <t>1. Input data on all field
-2. Select Home button 
-3. Click button save</t>
-  </si>
-  <si>
-    <t>New Address created successfully with Home delivery.
-New address will be displayed on the top of Address book (screen)</t>
-  </si>
-  <si>
-    <t>Add new address successfully as Office</t>
-  </si>
-  <si>
-    <t>1. Input data on all field
-2. Select Office button 
-3. Click button save</t>
-  </si>
-  <si>
-    <t>New Address created successfully with Office delivery
-New address will be displayed on the top of Address book (screen)</t>
-  </si>
-  <si>
-    <t>Add new address unsuccessfully when input invalid all fields</t>
-  </si>
-  <si>
-    <t>1. Input data on all field with invalid
-2. Click button save</t>
-  </si>
-  <si>
-    <t>New Address add unsuccessfully with error message display under all fields with the corresponding error</t>
-  </si>
-  <si>
-    <t>Check function when on Cancel button with inputted all fields</t>
-  </si>
-  <si>
-    <t>1. Input data on all field
-2. Click button Cancel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back to the list address screen </t>
+2. Click Cancel button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1 System do not save anything
+2.2 Back to the list address screen </t>
   </si>
   <si>
     <t>Check function when on Cancel button without inputted all fields</t>
   </si>
   <si>
     <t>1. Do not input data on all field
-2. Click button Cancel</t>
+2. Click Cancel button</t>
   </si>
   <si>
     <t>Add new address duplicate in the existing address</t>
   </si>
   <si>
-    <t>1. Input data on all field with the exist address 
-2. Click button save</t>
-  </si>
-  <si>
-    <t>Save successful and message will show in "Add new address successful"
-New address will be displayed on the top of Address book (screen)</t>
+    <t xml:space="preserve">1. Input data into all fields same as the existing address 
+2. Click Save button </t>
+  </si>
+  <si>
+    <t>2.1 Save successful and close the add new address screen 
+2.2 Duplicate address are pushed to on the top of Address book (screen)</t>
   </si>
   <si>
     <t>Add multiple address for one person(Same Phone,Name)</t>
   </si>
   <si>
-    <t>1. Input data multiple address for one person
-2. Click button save</t>
+    <t xml:space="preserve">1. Input data multiple address for one person
+2. Click Save button </t>
+  </si>
+  <si>
+    <t>2.1 Save successful and close the add new address screen 
+2.2 New address will be displayed on the top of Address book (screen)</t>
   </si>
   <si>
     <t>1. Let Ward data is blank
 2. Input data on others field
 3. Click button save</t>
+  </si>
+  <si>
+    <t>Error message 1: " Please select your Ward" show under this box</t>
   </si>
   <si>
     <t>Check data display in the dropdown box -63 Wards</t>
@@ -903,11 +962,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
     <numFmt numFmtId="181" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="36">
@@ -960,6 +1019,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -969,22 +1035,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -997,29 +1048,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1034,20 +1087,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="明朝"/>
-      <charset val="128"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -1059,29 +1139,40 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1095,44 +1186,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1159,6 +1213,11 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="明朝"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="49">
     <fill>
@@ -1235,7 +1294,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,7 +1312,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,20 +1348,110 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor rgb="FFF7A884"/>
       </patternFill>
     </fill>
     <fill>
@@ -1283,55 +1462,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor rgb="FFF7A884"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,110 +1504,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF800000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFBFBFBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF99CC"/>
-        <bgColor rgb="FFF7A884"/>
       </patternFill>
     </fill>
   </fills>
@@ -1558,69 +1617,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1662,11 +1658,63 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1685,195 +1733,206 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="15"/>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="34" borderId="15">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="44" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="44" borderId="0"/>
+    <xf numFmtId="180" fontId="25" fillId="41" borderId="15"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="33" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11"/>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="37" borderId="11">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="38" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="38" borderId="0"/>
-    <xf numFmtId="176" fontId="20" fillId="28" borderId="11"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="34" fillId="2" borderId="0">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="34" fillId="48" borderId="16">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="35" fillId="47" borderId="17">
+    <xf numFmtId="180" fontId="5" fillId="39" borderId="16">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="48" borderId="17">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2021,6 +2080,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2030,9 +2092,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2080,6 +2139,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="73">
@@ -2494,8 +2559,8 @@
   <sheetPr/>
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>
@@ -2503,8 +2568,8 @@
     <col min="1" max="1" width="12.8571428571429" style="18" customWidth="1"/>
     <col min="2" max="2" width="35.1428571428571" style="19" customWidth="1"/>
     <col min="3" max="3" width="25.8571428571429" style="19" customWidth="1"/>
-    <col min="4" max="4" width="28.5714285714286" style="19" customWidth="1"/>
-    <col min="5" max="5" width="9.14285714285714" style="19" customWidth="1"/>
+    <col min="4" max="4" width="28.4285714285714" style="19" customWidth="1"/>
+    <col min="5" max="5" width="15.5714285714286" style="19" customWidth="1"/>
     <col min="6" max="6" width="9.28571428571429" style="19" customWidth="1"/>
     <col min="7" max="8" width="9.72380952380952" style="19" customWidth="1"/>
     <col min="9" max="9" width="4.85714285714286" style="19" customWidth="1"/>
@@ -2859,7 +2924,7 @@
       <c r="I22" s="45"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
+    <row r="23" s="1" customFormat="1" ht="76.5" outlineLevel="1" spans="1:10">
       <c r="A23" s="2">
         <f ca="1" t="shared" si="0"/>
         <v>3</v>
@@ -2873,14 +2938,16 @@
       <c r="D23" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="45"/>
+      <c r="E23" s="45">
+        <v>1</v>
+      </c>
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
+    <row r="24" s="1" customFormat="1" ht="76.5" outlineLevel="1" spans="1:10">
       <c r="A24" s="2">
         <f ca="1" t="shared" si="0"/>
         <v>4</v>
@@ -2894,14 +2961,16 @@
       <c r="D24" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="45"/>
+      <c r="E24" s="45">
+        <v>12</v>
+      </c>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
       <c r="H24" s="45"/>
       <c r="I24" s="45"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="76.5" outlineLevel="1" spans="1:10">
+    <row r="25" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
       <c r="A25" s="2">
         <f ca="1" t="shared" si="0"/>
         <v>5</v>
@@ -2915,14 +2984,16 @@
       <c r="D25" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="45"/>
+      <c r="E25" s="45">
+        <v>123</v>
+      </c>
       <c r="F25" s="45"/>
       <c r="G25" s="45"/>
       <c r="H25" s="45"/>
       <c r="I25" s="45"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
+    <row r="26" s="1" customFormat="1" ht="76.5" outlineLevel="1" spans="1:10">
       <c r="A26" s="2">
         <f ca="1" t="shared" si="0"/>
         <v>6</v>
@@ -2943,7 +3014,7 @@
       <c r="I26" s="45"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
+    <row r="27" s="1" customFormat="1" ht="76.5" outlineLevel="1" spans="1:10">
       <c r="A27" s="2">
         <f ca="1" t="shared" si="0"/>
         <v>7</v>
@@ -2955,7 +3026,7 @@
         <v>44</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E27" s="45"/>
       <c r="F27" s="45"/>
@@ -2964,19 +3035,19 @@
       <c r="I27" s="45"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
+    <row r="28" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
       <c r="A28" s="2">
         <f ca="1" t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
@@ -2991,13 +3062,13 @@
         <v>9</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E29" s="45"/>
       <c r="F29" s="45"/>
@@ -3006,22 +3077,22 @@
       <c r="I29" s="45"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
+    <row r="30" s="1" customFormat="1" ht="76.5" outlineLevel="1" spans="1:10">
       <c r="A30" s="2">
         <f ca="1" t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F30" s="45"/>
       <c r="G30" s="45"/>
@@ -3029,21 +3100,23 @@
       <c r="I30" s="45"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
+    <row r="31" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
       <c r="A31" s="2">
         <f ca="1" t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="45"/>
+        <v>58</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>59</v>
+      </c>
       <c r="F31" s="45"/>
       <c r="G31" s="45"/>
       <c r="H31" s="45"/>
@@ -3056,13 +3129,13 @@
         <v>12</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E32" s="45"/>
       <c r="F32" s="45"/>
@@ -3074,7 +3147,7 @@
     <row r="33" s="15" customFormat="1" spans="1:10">
       <c r="A33" s="47"/>
       <c r="B33" s="42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
@@ -3091,13 +3164,13 @@
         <v>13</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="2"/>
@@ -3112,13 +3185,13 @@
         <v>14</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="2"/>
@@ -3133,15 +3206,17 @@
         <v>15</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="E36" s="69" t="s">
+        <v>73</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="48"/>
       <c r="H36" s="48"/>
@@ -3154,15 +3229,17 @@
         <v>16</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="D37" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="69" t="s">
+        <v>77</v>
+      </c>
       <c r="F37" s="2"/>
       <c r="G37" s="48"/>
       <c r="H37" s="48"/>
@@ -3175,34 +3252,36 @@
         <v>17</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="69" t="s">
+        <v>80</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="48"/>
       <c r="H38" s="48"/>
       <c r="I38" s="4"/>
       <c r="J38" s="58"/>
     </row>
-    <row r="39" s="14" customFormat="1" ht="76.5" outlineLevel="1" spans="1:10">
+    <row r="39" s="14" customFormat="1" ht="89.25" outlineLevel="1" spans="1:10">
       <c r="A39" s="2">
         <f ca="1" t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="2"/>
@@ -3217,36 +3296,40 @@
         <v>19</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="48"/>
       <c r="H40" s="48"/>
       <c r="I40" s="4"/>
       <c r="J40" s="58"/>
     </row>
-    <row r="41" s="14" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
+    <row r="41" s="14" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
       <c r="A41" s="2">
         <f ca="1" t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="4"/>
       <c r="F41" s="2"/>
       <c r="G41" s="48"/>
       <c r="H41" s="48"/>
@@ -3259,13 +3342,13 @@
         <v>21</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D42" s="46" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="2"/>
@@ -3275,9 +3358,9 @@
       <c r="J42" s="58"/>
     </row>
     <row r="43" s="15" customFormat="1" spans="1:10">
-      <c r="A43" s="49"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="42" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C43" s="42"/>
       <c r="D43" s="42"/>
@@ -3293,19 +3376,19 @@
         <f ca="1" t="shared" ref="A43:A74" si="2">IF(OFFSET(A44,-1,0)="",OFFSET(A44,-2,0)+1,OFFSET(A44,-1,0)+1)</f>
         <v>22</v>
       </c>
-      <c r="B44" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
+      <c r="B44" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
       <c r="I44" s="60"/>
       <c r="J44" s="61"/>
     </row>
@@ -3314,19 +3397,19 @@
         <f ca="1" t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B45" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
+      <c r="B45" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
       <c r="I45" s="62"/>
       <c r="J45" s="63"/>
     </row>
@@ -3335,19 +3418,21 @@
         <f ca="1" t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B46" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
+      <c r="B46" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
       <c r="I46" s="62"/>
       <c r="J46" s="63"/>
     </row>
@@ -3356,40 +3441,44 @@
         <f ca="1" t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B47" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="51" t="s">
+      <c r="B47" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
+      <c r="E47" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
       <c r="I47" s="62"/>
       <c r="J47" s="63"/>
     </row>
-    <row r="48" customFormat="1" ht="76.5" spans="1:10">
+    <row r="48" customFormat="1" ht="63.75" spans="1:10">
       <c r="A48" s="2">
         <f ca="1" t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B48" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="51" t="s">
+      <c r="B48" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
+      <c r="E48" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
       <c r="I48" s="62"/>
       <c r="J48" s="63"/>
     </row>
@@ -3398,19 +3487,19 @@
         <f ca="1" t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B49" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="51" t="s">
+      <c r="B49" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
       <c r="I49" s="62"/>
       <c r="J49" s="63"/>
     </row>
@@ -3419,40 +3508,40 @@
         <f ca="1" t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B50" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
+      <c r="B50" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
       <c r="I50" s="62"/>
       <c r="J50" s="63"/>
     </row>
-    <row r="51" customFormat="1" ht="51" spans="1:10">
+    <row r="51" customFormat="1" ht="63.75" spans="1:10">
       <c r="A51" s="2">
         <f ca="1" t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B51" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
+      <c r="B51" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
       <c r="I51" s="62"/>
       <c r="J51" s="63"/>
     </row>
@@ -3461,19 +3550,19 @@
         <f ca="1" t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B52" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" s="51" t="s">
+      <c r="B52" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
       <c r="I52" s="62"/>
       <c r="J52" s="63"/>
     </row>
@@ -3482,40 +3571,42 @@
         <f ca="1" t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B53" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
+      <c r="B53" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
       <c r="I53" s="62"/>
       <c r="J53" s="63"/>
     </row>
-    <row r="54" customFormat="1" ht="51" spans="1:10">
+    <row r="54" customFormat="1" ht="63.75" spans="1:10">
       <c r="A54" s="2">
         <f ca="1" t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B54" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
+      <c r="B54" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
       <c r="I54" s="62"/>
       <c r="J54" s="63"/>
     </row>
@@ -3524,26 +3615,26 @@
         <f ca="1" t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="B55" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
+      <c r="B55" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
       <c r="I55" s="62"/>
       <c r="J55" s="63"/>
     </row>
     <row r="56" s="15" customFormat="1" spans="1:10">
-      <c r="A56" s="49"/>
+      <c r="A56" s="50"/>
       <c r="B56" s="42" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C56" s="42"/>
       <c r="D56" s="42"/>
@@ -3560,13 +3651,13 @@
         <v>34</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="50" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+      <c r="C57" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" s="51" t="s">
+        <v>128</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="2"/>
@@ -3581,13 +3672,13 @@
         <v>35</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="D58" s="50" t="s">
-        <v>120</v>
+        <v>129</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="51" t="s">
+        <v>131</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="2"/>
@@ -3602,13 +3693,13 @@
         <v>36</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="2"/>
@@ -3623,13 +3714,13 @@
         <v>37</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D60" s="45" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="2"/>
@@ -3644,13 +3735,13 @@
         <v>38</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="2"/>
@@ -3665,13 +3756,13 @@
         <v>39</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D62" s="45" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="2"/>
@@ -3686,13 +3777,13 @@
         <v>40</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D63" s="52" t="s">
-        <v>135</v>
+        <v>145</v>
+      </c>
+      <c r="D63" s="49" t="s">
+        <v>146</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="2"/>
@@ -3707,13 +3798,13 @@
         <v>41</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D64" s="52" t="s">
-        <v>138</v>
+        <v>148</v>
+      </c>
+      <c r="D64" s="49" t="s">
+        <v>149</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="2"/>
@@ -3723,9 +3814,9 @@
       <c r="J64" s="8"/>
     </row>
     <row r="65" s="15" customFormat="1" spans="1:10">
-      <c r="A65" s="49"/>
+      <c r="A65" s="50"/>
       <c r="B65" s="42" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C65" s="42"/>
       <c r="D65" s="42"/>
@@ -3742,13 +3833,13 @@
         <v>42</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C66" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="D66" s="50" t="s">
-        <v>142</v>
+        <v>151</v>
+      </c>
+      <c r="C66" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" s="51" t="s">
+        <v>153</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="2"/>
@@ -3763,13 +3854,13 @@
         <v>43</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="D67" s="50" t="s">
-        <v>144</v>
+        <v>129</v>
+      </c>
+      <c r="C67" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D67" s="51" t="s">
+        <v>155</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="2"/>
@@ -3784,13 +3875,13 @@
         <v>44</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="2"/>
@@ -3805,13 +3896,13 @@
         <v>45</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D69" s="45" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="2"/>
@@ -3826,13 +3917,13 @@
         <v>46</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="2"/>
@@ -3847,13 +3938,13 @@
         <v>47</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="D71" s="45" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="2"/>
@@ -3868,13 +3959,13 @@
         <v>48</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D72" s="52" t="s">
-        <v>135</v>
+        <v>168</v>
+      </c>
+      <c r="D72" s="49" t="s">
+        <v>169</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="2"/>
@@ -3889,13 +3980,13 @@
         <v>49</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D73" s="52" t="s">
-        <v>138</v>
+        <v>171</v>
+      </c>
+      <c r="D73" s="49" t="s">
+        <v>172</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="2"/>
@@ -3910,13 +4001,13 @@
         <v>50</v>
       </c>
       <c r="B74" s="64" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D74" s="45" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="2"/>
@@ -3931,13 +4022,13 @@
         <v>51</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="E75" s="48"/>
       <c r="F75" s="5"/>
@@ -3947,9 +4038,9 @@
       <c r="J75" s="67"/>
     </row>
     <row r="76" s="15" customFormat="1" spans="1:10">
-      <c r="A76" s="49"/>
+      <c r="A76" s="50"/>
       <c r="B76" s="42" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C76" s="42"/>
       <c r="D76" s="42"/>
@@ -3966,13 +4057,13 @@
         <v>52</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C77" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="D77" s="50" t="s">
-        <v>169</v>
+        <v>180</v>
+      </c>
+      <c r="C77" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="D77" s="51" t="s">
+        <v>182</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="2"/>
@@ -3987,13 +4078,13 @@
         <v>53</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="D78" s="50" t="s">
-        <v>171</v>
+        <v>183</v>
+      </c>
+      <c r="C78" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" s="51" t="s">
+        <v>185</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="2"/>
@@ -4008,13 +4099,13 @@
         <v>54</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="2"/>
@@ -4029,13 +4120,13 @@
         <v>55</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D80" s="45" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="2"/>
@@ -4050,13 +4141,13 @@
         <v>56</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="2"/>
@@ -4071,13 +4162,13 @@
         <v>57</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="D82" s="45" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="2"/>
@@ -4092,13 +4183,13 @@
         <v>58</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D83" s="52" t="s">
-        <v>135</v>
+        <v>199</v>
+      </c>
+      <c r="D83" s="49" t="s">
+        <v>146</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="2"/>
@@ -4113,13 +4204,13 @@
         <v>59</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D84" s="52" t="s">
-        <v>138</v>
+        <v>201</v>
+      </c>
+      <c r="D84" s="49" t="s">
+        <v>172</v>
       </c>
       <c r="E84" s="45"/>
       <c r="F84" s="2"/>
@@ -4134,13 +4225,13 @@
         <v>60</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D85" s="45" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="2"/>
@@ -4149,19 +4240,19 @@
       <c r="I85" s="45"/>
       <c r="J85" s="8"/>
     </row>
-    <row r="86" s="1" customFormat="1" ht="76.5" outlineLevel="1" spans="1:10">
+    <row r="86" s="1" customFormat="1" ht="102" outlineLevel="1" spans="1:10">
       <c r="A86" s="2">
         <f ca="1" t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="2"/>
@@ -4171,9 +4262,9 @@
       <c r="J86" s="8"/>
     </row>
     <row r="87" s="15" customFormat="1" spans="1:10">
-      <c r="A87" s="49"/>
+      <c r="A87" s="50"/>
       <c r="B87" s="42" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C87" s="42"/>
       <c r="D87" s="42"/>
@@ -4190,13 +4281,13 @@
         <v>62</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="D88" s="51" t="s">
-        <v>195</v>
+        <v>209</v>
+      </c>
+      <c r="C88" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="D88" s="52" t="s">
+        <v>211</v>
       </c>
       <c r="E88" s="48"/>
       <c r="F88" s="5"/>
@@ -4205,19 +4296,19 @@
       <c r="I88" s="48"/>
       <c r="J88" s="67"/>
     </row>
-    <row r="89" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
+    <row r="89" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
       <c r="A89" s="2">
         <f ca="1">IF(OFFSET(A89,-1,0)="",OFFSET(A89,-2,0)+1,OFFSET(A89,-1,0)+1)</f>
         <v>63</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C89" s="50" t="s">
-        <v>197</v>
+        <v>212</v>
+      </c>
+      <c r="C89" s="51" t="s">
+        <v>213</v>
       </c>
       <c r="D89" s="48" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="E89" s="45"/>
       <c r="F89" s="45"/>
@@ -4226,19 +4317,19 @@
       <c r="I89" s="45"/>
       <c r="J89" s="8"/>
     </row>
-    <row r="90" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
+    <row r="90" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
       <c r="A90" s="2">
         <f ca="1">IF(OFFSET(A90,-1,0)="",OFFSET(A90,-2,0)+1,OFFSET(A90,-1,0)+1)</f>
         <v>64</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C90" s="50" t="s">
-        <v>200</v>
+        <v>215</v>
+      </c>
+      <c r="C90" s="51" t="s">
+        <v>216</v>
       </c>
       <c r="D90" s="48" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="E90" s="45"/>
       <c r="F90" s="45"/>
@@ -4250,7 +4341,7 @@
     <row r="91" s="17" customFormat="1" spans="1:10">
       <c r="A91" s="65"/>
       <c r="B91" s="40" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C91" s="40"/>
       <c r="D91" s="40"/>
@@ -4261,19 +4352,19 @@
       <c r="I91" s="66"/>
       <c r="J91" s="68"/>
     </row>
-    <row r="92" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
+    <row r="92" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
       <c r="A92" s="2">
         <f ca="1" t="shared" ref="A92:A98" si="6">IF(OFFSET(A92,-1,0)="",OFFSET(A92,-2,0)+1,OFFSET(A92,-1,0)+1)</f>
         <v>65</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="D92" s="45" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="E92" s="45"/>
       <c r="F92" s="45"/>
@@ -4282,19 +4373,19 @@
       <c r="I92" s="45"/>
       <c r="J92" s="8"/>
     </row>
-    <row r="93" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
+    <row r="93" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
       <c r="A93" s="2">
         <f ca="1" t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="D93" s="45" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="E93" s="45"/>
       <c r="F93" s="45"/>
@@ -4309,13 +4400,13 @@
         <v>67</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="D94" s="45" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="E94" s="45"/>
       <c r="F94" s="45"/>
@@ -4324,19 +4415,19 @@
       <c r="I94" s="45"/>
       <c r="J94" s="8"/>
     </row>
-    <row r="95" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
+    <row r="95" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
       <c r="A95" s="2">
         <f ca="1" t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="D95" s="45" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="E95" s="45"/>
       <c r="F95" s="45"/>
@@ -4345,19 +4436,19 @@
       <c r="I95" s="45"/>
       <c r="J95" s="8"/>
     </row>
-    <row r="96" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
+    <row r="96" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
       <c r="A96" s="2">
         <f ca="1" t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="D96" s="45" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="E96" s="45"/>
       <c r="F96" s="45"/>
@@ -4372,13 +4463,13 @@
         <v>70</v>
       </c>
       <c r="B97" s="48" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="D97" s="45" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="E97" s="45"/>
       <c r="F97" s="45"/>
@@ -4393,13 +4484,13 @@
         <v>71</v>
       </c>
       <c r="B98" s="48" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="D98" s="45" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="E98" s="45"/>
       <c r="F98" s="45"/>
@@ -4513,13 +4604,13 @@
         <v>#REF!</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="2"/>
@@ -4534,13 +4625,13 @@
         <v>#REF!</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2"/>
@@ -4555,11 +4646,11 @@
         <v>#REF!</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2"/>
@@ -4574,7 +4665,7 @@
         <v>#REF!</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="4"/>
@@ -4590,11 +4681,11 @@
         <v>#REF!</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="5" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
@@ -4605,21 +4696,21 @@
     </row>
     <row r="6" customFormat="1" ht="63.75" spans="2:4">
       <c r="B6" s="2" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" customFormat="1" ht="89.25" spans="2:4">
       <c r="B7" s="2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" customFormat="1" ht="76.5" spans="2:4">
       <c r="B8" s="2" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>

--- a/Middle_Assignment/Assignment4/Le Thi Hoa_TestCase_4.xlsx
+++ b/Middle_Assignment/Assignment4/Le Thi Hoa_TestCase_4.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="AddNewAddress" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="abc">#REF!</definedName>
@@ -93,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="239">
   <si>
     <t>Common Checklist</t>
   </si>
@@ -930,31 +929,6 @@
   <si>
     <t>2.1 Save successful and close the add new address screen 
 2.2 New address will be displayed on the top of Address book (screen)</t>
-  </si>
-  <si>
-    <t>1. Let Ward data is blank
-2. Input data on others field
-3. Click button save</t>
-  </si>
-  <si>
-    <t>Error message 1: " Please select your Ward" show under this box</t>
-  </si>
-  <si>
-    <t>Check data display in the dropdown box -63 Wards</t>
-  </si>
-  <si>
-    <t>Check available values of the Ward dropdownlist
-- Display value: 63 Wards
-- Sorting: Ascending</t>
-  </si>
-  <si>
-    <t>Check Ward dropdowwn value when select a value</t>
-  </si>
-  <si>
-    <t>Check Ward dropdowwn value when select second value</t>
-  </si>
-  <si>
-    <t>Single data</t>
   </si>
 </sst>
 </file>
@@ -964,9 +938,9 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="36">
@@ -978,12 +952,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -1007,6 +975,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1019,68 +993,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1091,6 +1005,30 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="明朝"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1106,11 +1044,18 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1123,7 +1068,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1138,23 +1098,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF7EA1D0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="16"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1164,29 +1142,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF7EA1D0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1200,11 +1172,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1214,8 +1186,10 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <name val="明朝"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1294,43 +1268,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFF7A884"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,37 +1466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,132 +1478,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF99CC"/>
         <bgColor rgb="FFF7A884"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFF7A884"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF800000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFBFBFBF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1521,34 +1495,6 @@
       <left style="thin">
         <color theme="2" tint="-0.0999786370433668"/>
       </left>
-      <right style="thin">
-        <color theme="2" tint="-0.0999786370433668"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.0999786370433668"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.0999786370433668"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0CECE"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0CECE"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0CECE"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0CECE"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color theme="2" tint="-0.0999786370433668"/>
       </right>
@@ -1589,6 +1535,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.0999786370433668"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.0999786370433668"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.0999786370433668"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="2" tint="-0.0999786370433668"/>
       </left>
@@ -1618,40 +1577,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFC0C0C0"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFC0C0C0"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFC0C0C0"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFC0C0C0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1680,21 +1630,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1705,16 +1640,51 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC0C0C0"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFC0C0C0"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFC0C0C0"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1733,417 +1703,400 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="15"/>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="25" fillId="34" borderId="15">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7"/>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="36" borderId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="44" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="44" borderId="0"/>
-    <xf numFmtId="180" fontId="25" fillId="41" borderId="15"/>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="16" borderId="0"/>
+    <xf numFmtId="178" fontId="11" fillId="15" borderId="7"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="33" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="34" fillId="48" borderId="16">
+    <xf numFmtId="178" fontId="34" fillId="40" borderId="16">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="39" borderId="16">
+    <xf numFmtId="178" fontId="4" fillId="48" borderId="16">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2559,1990 +2512,1990 @@
   <sheetPr/>
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.8571428571429" style="18" customWidth="1"/>
-    <col min="2" max="2" width="35.1428571428571" style="19" customWidth="1"/>
-    <col min="3" max="3" width="25.8571428571429" style="19" customWidth="1"/>
-    <col min="4" max="4" width="28.4285714285714" style="19" customWidth="1"/>
-    <col min="5" max="5" width="15.5714285714286" style="19" customWidth="1"/>
-    <col min="6" max="6" width="9.28571428571429" style="19" customWidth="1"/>
-    <col min="7" max="8" width="9.72380952380952" style="19" customWidth="1"/>
-    <col min="9" max="9" width="4.85714285714286" style="19" customWidth="1"/>
-    <col min="10" max="1024" width="9.18095238095238" style="19"/>
+    <col min="1" max="1" width="12.8571428571429" style="11" customWidth="1"/>
+    <col min="2" max="2" width="35.1428571428571" style="12" customWidth="1"/>
+    <col min="3" max="3" width="25.8571428571429" style="12" customWidth="1"/>
+    <col min="4" max="4" width="28.4285714285714" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.5714285714286" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9.28571428571429" style="12" customWidth="1"/>
+    <col min="7" max="8" width="9.72380952380952" style="12" customWidth="1"/>
+    <col min="9" max="9" width="4.85714285714286" style="12" customWidth="1"/>
+    <col min="10" max="1024" width="9.18095238095238" style="12"/>
     <col min="1025" max="16384" width="9.18095238095238" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:10">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="24"/>
-    </row>
-    <row r="4" s="9" customFormat="1" spans="1:10">
-      <c r="A4" s="30" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:10">
+      <c r="A4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="53"/>
-    </row>
-    <row r="5" s="9" customFormat="1" spans="1:10">
-      <c r="A5" s="30" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="49"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:10">
+      <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="53"/>
-    </row>
-    <row r="6" s="9" customFormat="1" spans="1:10">
-      <c r="A6" s="30" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="49"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:10">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="53"/>
-    </row>
-    <row r="7" s="9" customFormat="1" spans="1:10">
-      <c r="A7" s="30" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="49"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:10">
+      <c r="A7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="53"/>
-    </row>
-    <row r="8" s="9" customFormat="1" spans="1:10">
-      <c r="A8" s="30" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="49"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:10">
+      <c r="A8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="53"/>
-    </row>
-    <row r="9" s="9" customFormat="1" spans="1:10">
-      <c r="A9" s="30" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="49"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:10">
+      <c r="A9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="35" t="str">
+      <c r="B9" s="28" t="str">
         <f>F17</f>
         <v>Enviroment1</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="28">
         <f>G17</f>
         <v>0</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="28">
         <f>H17</f>
         <v>0</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="53"/>
-    </row>
-    <row r="10" s="9" customFormat="1" spans="1:10">
-      <c r="A10" s="30" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="49"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:10">
+      <c r="A10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="53"/>
-    </row>
-    <row r="11" s="9" customFormat="1" spans="1:10">
-      <c r="A11" s="30" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="49"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:10">
+      <c r="A11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="53"/>
-    </row>
-    <row r="12" s="9" customFormat="1" spans="1:10">
-      <c r="A12" s="30" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="49"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:10">
+      <c r="A12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="53"/>
-    </row>
-    <row r="13" s="9" customFormat="1" spans="1:10">
-      <c r="A13" s="30" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="49"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:10">
+      <c r="A13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="53"/>
-    </row>
-    <row r="14" s="9" customFormat="1" spans="1:10">
-      <c r="A14" s="30" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="49"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:10">
+      <c r="A14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="53"/>
-    </row>
-    <row r="15" s="9" customFormat="1" ht="38.25" spans="1:10">
-      <c r="A15" s="30" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="49"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="38.25" spans="1:10">
+      <c r="A15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="53"/>
-    </row>
-    <row r="16" s="10" customFormat="1" spans="1:10">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="49"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:10">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="54"/>
-    </row>
-    <row r="17" s="11" customFormat="1" ht="25.5" spans="1:10">
-      <c r="A17" s="30" t="s">
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="50"/>
+    </row>
+    <row r="17" s="4" customFormat="1" ht="25.5" spans="1:10">
+      <c r="A17" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30" t="s">
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="55"/>
-    </row>
-    <row r="18" s="12" customFormat="1" spans="1:10">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40" t="s">
+      <c r="J17" s="51"/>
+    </row>
+    <row r="18" s="5" customFormat="1" spans="1:10">
+      <c r="A18" s="32"/>
+      <c r="B18" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="56"/>
-    </row>
-    <row r="19" s="12" customFormat="1" spans="1:10">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="52"/>
+    </row>
+    <row r="19" s="5" customFormat="1" spans="1:10">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="56"/>
-    </row>
-    <row r="20" s="13" customFormat="1" spans="1:10">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="52"/>
+    </row>
+    <row r="20" s="6" customFormat="1" spans="1:10">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="57"/>
-    </row>
-    <row r="21" s="14" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
-      <c r="A21" s="2">
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="53"/>
+    </row>
+    <row r="21" s="7" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
+      <c r="A21" s="38">
         <f ca="1">IF(OFFSET(A21,-1,0)="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1)</f>
         <v>1</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="58"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="54"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
-      <c r="A22" s="2">
+      <c r="A22" s="38">
         <f ca="1" t="shared" ref="A22:A32" si="0">IF(OFFSET(A22,-1,0)="",OFFSET(A22,-2,0)+1,OFFSET(A22,-1,0)+1)</f>
         <v>2</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="8"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="55"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="76.5" outlineLevel="1" spans="1:10">
-      <c r="A23" s="2">
+      <c r="A23" s="38">
         <f ca="1" t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="41">
         <v>1</v>
       </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="8"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="76.5" outlineLevel="1" spans="1:10">
-      <c r="A24" s="2">
+      <c r="A24" s="38">
         <f ca="1" t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="41">
         <v>12</v>
       </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="8"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
-      <c r="A25" s="2">
+      <c r="A25" s="38">
         <f ca="1" t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="41">
         <v>123</v>
       </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="8"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="55"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="76.5" outlineLevel="1" spans="1:10">
-      <c r="A26" s="2">
+      <c r="A26" s="38">
         <f ca="1" t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="8"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="55"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="76.5" outlineLevel="1" spans="1:10">
-      <c r="A27" s="2">
+      <c r="A27" s="38">
         <f ca="1" t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="8"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="55"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
-      <c r="A28" s="2">
+      <c r="A28" s="38">
         <f ca="1" t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="8"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="76.5" outlineLevel="1" spans="1:10">
-      <c r="A29" s="2">
+      <c r="A29" s="38">
         <f ca="1" t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="8"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="55"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="76.5" outlineLevel="1" spans="1:10">
-      <c r="A30" s="2">
+      <c r="A30" s="38">
         <f ca="1" t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="8"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="55"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
-      <c r="A31" s="2">
+      <c r="A31" s="38">
         <f ca="1" t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="8"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="55"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A32" s="2">
+      <c r="A32" s="38">
         <f ca="1" t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="8"/>
-    </row>
-    <row r="33" s="15" customFormat="1" spans="1:10">
-      <c r="A33" s="47"/>
-      <c r="B33" s="42" t="s">
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="55"/>
+    </row>
+    <row r="33" s="8" customFormat="1" spans="1:10">
+      <c r="A33" s="43"/>
+      <c r="B33" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="59"/>
-    </row>
-    <row r="34" s="14" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
-      <c r="A34" s="2">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="56"/>
+    </row>
+    <row r="34" s="7" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
+      <c r="A34" s="38">
         <f ca="1" t="shared" ref="A34:A42" si="1">IF(OFFSET(A34,-1,0)="",OFFSET(A34,-2,0)+1,OFFSET(A34,-1,0)+1)</f>
         <v>13</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="58"/>
-    </row>
-    <row r="35" s="14" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
-      <c r="A35" s="2">
+      <c r="E34" s="39"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="54"/>
+    </row>
+    <row r="35" s="7" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
+      <c r="A35" s="38">
         <f ca="1" t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="58"/>
-    </row>
-    <row r="36" s="14" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
-      <c r="A36" s="2">
+      <c r="E35" s="39"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="54"/>
+    </row>
+    <row r="36" s="7" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
+      <c r="A36" s="38">
         <f ca="1" t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="69" t="s">
+      <c r="E36" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="58"/>
-    </row>
-    <row r="37" s="14" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
-      <c r="A37" s="2">
+      <c r="F36" s="38"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="54"/>
+    </row>
+    <row r="37" s="7" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
+      <c r="A37" s="38">
         <f ca="1" t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="70" t="s">
+      <c r="D37" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="69" t="s">
+      <c r="E37" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="58"/>
-    </row>
-    <row r="38" s="14" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
-      <c r="A38" s="2">
+      <c r="F37" s="38"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="54"/>
+    </row>
+    <row r="38" s="7" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
+      <c r="A38" s="38">
         <f ca="1" t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="69" t="s">
+      <c r="E38" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="58"/>
-    </row>
-    <row r="39" s="14" customFormat="1" ht="89.25" outlineLevel="1" spans="1:10">
-      <c r="A39" s="2">
+      <c r="F38" s="38"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="54"/>
+    </row>
+    <row r="39" s="7" customFormat="1" ht="89.25" outlineLevel="1" spans="1:10">
+      <c r="A39" s="38">
         <f ca="1" t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="58"/>
-    </row>
-    <row r="40" s="14" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
-      <c r="A40" s="2">
+      <c r="E39" s="39"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="54"/>
+    </row>
+    <row r="40" s="7" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
+      <c r="A40" s="38">
         <f ca="1" t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="58"/>
-    </row>
-    <row r="41" s="14" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
-      <c r="A41" s="2">
+      <c r="F40" s="38"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="54"/>
+    </row>
+    <row r="41" s="7" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
+      <c r="A41" s="38">
         <f ca="1" t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="45" t="s">
+      <c r="D41" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="69" t="s">
+      <c r="E41" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="58"/>
-    </row>
-    <row r="42" s="14" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A42" s="2">
+      <c r="F41" s="38"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="54"/>
+    </row>
+    <row r="42" s="7" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
+      <c r="A42" s="38">
         <f ca="1" t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="46" t="s">
+      <c r="D42" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="58"/>
-    </row>
-    <row r="43" s="15" customFormat="1" spans="1:10">
-      <c r="A43" s="50"/>
-      <c r="B43" s="42" t="s">
+      <c r="E42" s="39"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="54"/>
+    </row>
+    <row r="43" s="8" customFormat="1" spans="1:10">
+      <c r="A43" s="46"/>
+      <c r="B43" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="59"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="56"/>
     </row>
     <row r="44" customFormat="1" ht="51" spans="1:10">
-      <c r="A44" s="2">
+      <c r="A44" s="38">
         <f ca="1" t="shared" ref="A43:A74" si="2">IF(OFFSET(A44,-1,0)="",OFFSET(A44,-2,0)+1,OFFSET(A44,-1,0)+1)</f>
         <v>22</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="51" t="s">
+      <c r="D44" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="61"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="58"/>
     </row>
     <row r="45" customFormat="1" ht="51" spans="1:10">
-      <c r="A45" s="2">
+      <c r="A45" s="38">
         <f ca="1" t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="D45" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="63"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="60"/>
     </row>
     <row r="46" customFormat="1" ht="63.75" spans="1:10">
-      <c r="A46" s="2">
+      <c r="A46" s="38">
         <f ca="1" t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="52" t="s">
+      <c r="D46" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="E46" s="52" t="s">
+      <c r="E46" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="63"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="60"/>
     </row>
     <row r="47" customFormat="1" ht="63.75" spans="1:10">
-      <c r="A47" s="2">
+      <c r="A47" s="38">
         <f ca="1" t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="51" t="s">
+      <c r="C47" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="52" t="s">
+      <c r="E47" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="63"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="60"/>
     </row>
     <row r="48" customFormat="1" ht="63.75" spans="1:10">
-      <c r="A48" s="2">
+      <c r="A48" s="38">
         <f ca="1" t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="52" t="s">
+      <c r="D48" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="52" t="s">
+      <c r="E48" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="63"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="60"/>
     </row>
     <row r="49" customFormat="1" ht="63.75" spans="1:10">
-      <c r="A49" s="2">
+      <c r="A49" s="38">
         <f ca="1" t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="63"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="60"/>
     </row>
     <row r="50" customFormat="1" ht="63.75" spans="1:10">
-      <c r="A50" s="2">
+      <c r="A50" s="38">
         <f ca="1" t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="52" t="s">
+      <c r="D50" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="63"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="60"/>
     </row>
     <row r="51" customFormat="1" ht="63.75" spans="1:10">
-      <c r="A51" s="2">
+      <c r="A51" s="38">
         <f ca="1" t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="D51" s="52" t="s">
+      <c r="D51" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="63"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="60"/>
     </row>
     <row r="52" customFormat="1" ht="76.5" spans="1:10">
-      <c r="A52" s="2">
+      <c r="A52" s="38">
         <f ca="1" t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="52" t="s">
+      <c r="D52" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="63"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="60"/>
     </row>
     <row r="53" customFormat="1" ht="76.5" spans="1:10">
-      <c r="A53" s="2">
+      <c r="A53" s="38">
         <f ca="1" t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="51" t="s">
+      <c r="C53" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="D53" s="45" t="s">
+      <c r="D53" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="52" t="s">
+      <c r="E53" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="63"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="60"/>
     </row>
     <row r="54" customFormat="1" ht="63.75" spans="1:10">
-      <c r="A54" s="2">
+      <c r="A54" s="38">
         <f ca="1" t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="52" t="s">
+      <c r="D54" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="63"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="60"/>
     </row>
     <row r="55" customFormat="1" ht="25.5" spans="1:10">
-      <c r="A55" s="2">
+      <c r="A55" s="38">
         <f ca="1" t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="D55" s="52" t="s">
+      <c r="D55" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="63"/>
-    </row>
-    <row r="56" s="15" customFormat="1" spans="1:10">
-      <c r="A56" s="50"/>
-      <c r="B56" s="42" t="s">
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="60"/>
+    </row>
+    <row r="56" s="8" customFormat="1" spans="1:10">
+      <c r="A56" s="46"/>
+      <c r="B56" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="59"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="56"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
-      <c r="A57" s="2">
+      <c r="A57" s="38">
         <f ca="1" t="shared" ref="A57:A64" si="3">IF(OFFSET(A57,-1,0)="",OFFSET(A57,-2,0)+1,OFFSET(A57,-1,0)+1)</f>
         <v>34</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D57" s="51" t="s">
+      <c r="D57" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="8"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="55"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
-      <c r="A58" s="2">
+      <c r="A58" s="38">
         <f ca="1" t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="51" t="s">
+      <c r="C58" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D58" s="51" t="s">
+      <c r="D58" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="8"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="55"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
-      <c r="A59" s="2">
+      <c r="A59" s="38">
         <f ca="1" t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="8"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="55"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
-      <c r="A60" s="2">
+      <c r="A60" s="38">
         <f ca="1" t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="D60" s="45" t="s">
+      <c r="D60" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="8"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="55"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
-      <c r="A61" s="2">
+      <c r="A61" s="38">
         <f ca="1" t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="8"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="55"/>
     </row>
     <row r="62" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
-      <c r="A62" s="2">
+      <c r="A62" s="38">
         <f ca="1" t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="D62" s="45" t="s">
+      <c r="D62" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="8"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="55"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
-      <c r="A63" s="2">
+      <c r="A63" s="38">
         <f ca="1" t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="D63" s="49" t="s">
+      <c r="D63" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="8"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="55"/>
     </row>
     <row r="64" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
-      <c r="A64" s="2">
+      <c r="A64" s="38">
         <f ca="1" t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="D64" s="49" t="s">
+      <c r="D64" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="8"/>
-    </row>
-    <row r="65" s="15" customFormat="1" spans="1:10">
-      <c r="A65" s="50"/>
-      <c r="B65" s="42" t="s">
+      <c r="E64" s="39"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="55"/>
+    </row>
+    <row r="65" s="8" customFormat="1" spans="1:10">
+      <c r="A65" s="46"/>
+      <c r="B65" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="59"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="56"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
-      <c r="A66" s="2">
+      <c r="A66" s="38">
         <f ca="1" t="shared" ref="A66:A75" si="4">IF(OFFSET(A66,-1,0)="",OFFSET(A66,-2,0)+1,OFFSET(A66,-1,0)+1)</f>
         <v>42</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="C66" s="51" t="s">
+      <c r="C66" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="D66" s="51" t="s">
+      <c r="D66" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="45"/>
-      <c r="J66" s="8"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="55"/>
     </row>
     <row r="67" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
-      <c r="A67" s="2">
+      <c r="A67" s="38">
         <f ca="1" t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C67" s="51" t="s">
+      <c r="C67" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="D67" s="51" t="s">
+      <c r="D67" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="8"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="55"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
-      <c r="A68" s="2">
+      <c r="A68" s="38">
         <f ca="1" t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="45"/>
-      <c r="J68" s="8"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="55"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
-      <c r="A69" s="2">
+      <c r="A69" s="38">
         <f ca="1" t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="D69" s="45" t="s">
+      <c r="D69" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="8"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="55"/>
     </row>
     <row r="70" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
-      <c r="A70" s="2">
+      <c r="A70" s="38">
         <f ca="1" t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="8"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="55"/>
     </row>
     <row r="71" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
-      <c r="A71" s="2">
+      <c r="A71" s="38">
         <f ca="1" t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="D71" s="45" t="s">
+      <c r="D71" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="45"/>
-      <c r="J71" s="8"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="55"/>
     </row>
     <row r="72" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
-      <c r="A72" s="2">
+      <c r="A72" s="38">
         <f ca="1" t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="D72" s="49" t="s">
+      <c r="D72" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="45"/>
-      <c r="J72" s="8"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="55"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
-      <c r="A73" s="2">
+      <c r="A73" s="38">
         <f ca="1" t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="D73" s="49" t="s">
+      <c r="D73" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="45"/>
-      <c r="J73" s="8"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="55"/>
     </row>
     <row r="74" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
-      <c r="A74" s="2">
+      <c r="A74" s="38">
         <f ca="1" t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="B74" s="64" t="s">
+      <c r="B74" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="D74" s="45" t="s">
+      <c r="D74" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="45"/>
-      <c r="J74" s="8"/>
-    </row>
-    <row r="75" s="16" customFormat="1" ht="38.25" spans="1:10">
-      <c r="A75" s="2">
+      <c r="E74" s="39"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="55"/>
+    </row>
+    <row r="75" s="9" customFormat="1" ht="38.25" spans="1:10">
+      <c r="A75" s="38">
         <f ca="1" t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="E75" s="48"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="48"/>
-      <c r="J75" s="67"/>
-    </row>
-    <row r="76" s="15" customFormat="1" spans="1:10">
-      <c r="A76" s="50"/>
-      <c r="B76" s="42" t="s">
+      <c r="E75" s="44"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="65"/>
+    </row>
+    <row r="76" s="8" customFormat="1" spans="1:10">
+      <c r="A76" s="46"/>
+      <c r="B76" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="59"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="56"/>
     </row>
     <row r="77" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
-      <c r="A77" s="2">
+      <c r="A77" s="38">
         <f ca="1" t="shared" ref="A77:A86" si="5">IF(OFFSET(A77,-1,0)="",OFFSET(A77,-2,0)+1,OFFSET(A77,-1,0)+1)</f>
         <v>52</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="C77" s="51" t="s">
+      <c r="C77" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="D77" s="51" t="s">
+      <c r="D77" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="8"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="55"/>
     </row>
     <row r="78" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
-      <c r="A78" s="2">
+      <c r="A78" s="38">
         <f ca="1" t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="C78" s="51" t="s">
+      <c r="C78" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="D78" s="51" t="s">
+      <c r="D78" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="8"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="55"/>
     </row>
     <row r="79" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
-      <c r="A79" s="2">
+      <c r="A79" s="38">
         <f ca="1" t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="8"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="55"/>
     </row>
     <row r="80" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
-      <c r="A80" s="2">
+      <c r="A80" s="38">
         <f ca="1" t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="D80" s="45" t="s">
+      <c r="D80" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="45"/>
-      <c r="J80" s="8"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="55"/>
     </row>
     <row r="81" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
-      <c r="A81" s="2">
+      <c r="A81" s="38">
         <f ca="1" t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="8"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="55"/>
     </row>
     <row r="82" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
-      <c r="A82" s="2">
+      <c r="A82" s="38">
         <f ca="1" t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="D82" s="45" t="s">
+      <c r="D82" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="45"/>
-      <c r="J82" s="8"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="55"/>
     </row>
     <row r="83" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
-      <c r="A83" s="2">
+      <c r="A83" s="38">
         <f ca="1" t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="D83" s="49" t="s">
+      <c r="D83" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="45"/>
-      <c r="J83" s="8"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="55"/>
     </row>
     <row r="84" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
-      <c r="A84" s="2">
+      <c r="A84" s="38">
         <f ca="1" t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="D84" s="49" t="s">
+      <c r="D84" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="E84" s="45"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="45"/>
-      <c r="J84" s="8"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="55"/>
     </row>
     <row r="85" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
-      <c r="A85" s="2">
+      <c r="A85" s="38">
         <f ca="1" t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="D85" s="45" t="s">
+      <c r="D85" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E85" s="4"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="45"/>
-      <c r="J85" s="8"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="55"/>
     </row>
     <row r="86" s="1" customFormat="1" ht="102" outlineLevel="1" spans="1:10">
-      <c r="A86" s="2">
+      <c r="A86" s="38">
         <f ca="1" t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="E86" s="4"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="45"/>
-      <c r="J86" s="8"/>
-    </row>
-    <row r="87" s="15" customFormat="1" spans="1:10">
-      <c r="A87" s="50"/>
-      <c r="B87" s="42" t="s">
+      <c r="E86" s="39"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="55"/>
+    </row>
+    <row r="87" s="8" customFormat="1" spans="1:10">
+      <c r="A87" s="46"/>
+      <c r="B87" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="42"/>
-      <c r="D87" s="42"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="43"/>
-      <c r="G87" s="43"/>
-      <c r="H87" s="43"/>
-      <c r="I87" s="47"/>
-      <c r="J87" s="59"/>
-    </row>
-    <row r="88" s="16" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
-      <c r="A88" s="2">
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="43"/>
+      <c r="J87" s="56"/>
+    </row>
+    <row r="88" s="9" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
+      <c r="A88" s="38">
         <f ca="1">IF(OFFSET(A88,-1,0)="",OFFSET(A88,-2,0)+1,OFFSET(A88,-1,0)+1)</f>
         <v>62</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="C88" s="51" t="s">
+      <c r="C88" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="D88" s="52" t="s">
+      <c r="D88" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="E88" s="48"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="67"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="65"/>
     </row>
     <row r="89" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
-      <c r="A89" s="2">
+      <c r="A89" s="38">
         <f ca="1">IF(OFFSET(A89,-1,0)="",OFFSET(A89,-2,0)+1,OFFSET(A89,-1,0)+1)</f>
         <v>63</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="C89" s="51" t="s">
+      <c r="C89" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="D89" s="48" t="s">
+      <c r="D89" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="E89" s="45"/>
-      <c r="F89" s="45"/>
-      <c r="G89" s="45"/>
-      <c r="H89" s="45"/>
-      <c r="I89" s="45"/>
-      <c r="J89" s="8"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="55"/>
     </row>
     <row r="90" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
-      <c r="A90" s="2">
+      <c r="A90" s="38">
         <f ca="1">IF(OFFSET(A90,-1,0)="",OFFSET(A90,-2,0)+1,OFFSET(A90,-1,0)+1)</f>
         <v>64</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="C90" s="51" t="s">
+      <c r="C90" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="D90" s="48" t="s">
+      <c r="D90" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="E90" s="45"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="45"/>
-      <c r="H90" s="45"/>
-      <c r="I90" s="45"/>
-      <c r="J90" s="8"/>
-    </row>
-    <row r="91" s="17" customFormat="1" spans="1:10">
-      <c r="A91" s="65"/>
-      <c r="B91" s="40" t="s">
+      <c r="E90" s="41"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="55"/>
+    </row>
+    <row r="91" s="10" customFormat="1" spans="1:10">
+      <c r="A91" s="62"/>
+      <c r="B91" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="66"/>
-      <c r="J91" s="68"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="63"/>
+      <c r="G91" s="63"/>
+      <c r="H91" s="63"/>
+      <c r="I91" s="63"/>
+      <c r="J91" s="66"/>
     </row>
     <row r="92" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
-      <c r="A92" s="2">
+      <c r="A92" s="38">
         <f ca="1" t="shared" ref="A92:A98" si="6">IF(OFFSET(A92,-1,0)="",OFFSET(A92,-2,0)+1,OFFSET(A92,-1,0)+1)</f>
         <v>65</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D92" s="45" t="s">
+      <c r="D92" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="E92" s="45"/>
-      <c r="F92" s="45"/>
-      <c r="G92" s="45"/>
-      <c r="H92" s="45"/>
-      <c r="I92" s="45"/>
-      <c r="J92" s="8"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="41"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="55"/>
     </row>
     <row r="93" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
-      <c r="A93" s="2">
+      <c r="A93" s="38">
         <f ca="1" t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="D93" s="45" t="s">
+      <c r="D93" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="E93" s="45"/>
-      <c r="F93" s="45"/>
-      <c r="G93" s="45"/>
-      <c r="H93" s="45"/>
-      <c r="I93" s="45"/>
-      <c r="J93" s="8"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="41"/>
+      <c r="G93" s="41"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="41"/>
+      <c r="J93" s="55"/>
     </row>
     <row r="94" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
-      <c r="A94" s="2">
+      <c r="A94" s="38">
         <f ca="1" t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="D94" s="45" t="s">
+      <c r="D94" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="E94" s="45"/>
-      <c r="F94" s="45"/>
-      <c r="G94" s="45"/>
-      <c r="H94" s="45"/>
-      <c r="I94" s="45"/>
-      <c r="J94" s="8"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="41"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="55"/>
     </row>
     <row r="95" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
-      <c r="A95" s="2">
+      <c r="A95" s="38">
         <f ca="1" t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="D95" s="45" t="s">
+      <c r="D95" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E95" s="45"/>
-      <c r="F95" s="45"/>
-      <c r="G95" s="45"/>
-      <c r="H95" s="45"/>
-      <c r="I95" s="45"/>
-      <c r="J95" s="8"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="41"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="55"/>
     </row>
     <row r="96" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
-      <c r="A96" s="2">
+      <c r="A96" s="38">
         <f ca="1" t="shared" si="6"/>
         <v>69</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="D96" s="45" t="s">
+      <c r="D96" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E96" s="45"/>
-      <c r="F96" s="45"/>
-      <c r="G96" s="45"/>
-      <c r="H96" s="45"/>
-      <c r="I96" s="45"/>
-      <c r="J96" s="8"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="55"/>
     </row>
     <row r="97" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
-      <c r="A97" s="2">
+      <c r="A97" s="38">
         <f ca="1" t="shared" si="6"/>
         <v>70</v>
       </c>
-      <c r="B97" s="48" t="s">
+      <c r="B97" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="D97" s="45" t="s">
+      <c r="D97" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="E97" s="45"/>
-      <c r="F97" s="45"/>
-      <c r="G97" s="45"/>
-      <c r="H97" s="45"/>
-      <c r="I97" s="45"/>
-      <c r="J97" s="8"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="55"/>
     </row>
     <row r="98" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:9">
-      <c r="A98" s="2">
+      <c r="A98" s="38">
         <f ca="1" t="shared" si="6"/>
         <v>71</v>
       </c>
-      <c r="B98" s="48" t="s">
+      <c r="B98" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="D98" s="45" t="s">
+      <c r="D98" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="E98" s="45"/>
-      <c r="F98" s="45"/>
-      <c r="G98" s="45"/>
-      <c r="H98" s="45"/>
-      <c r="I98" s="45"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
     </row>
     <row r="99" s="1" customFormat="1" ht="15" outlineLevel="1" spans="1:9">
-      <c r="A99" s="2"/>
+      <c r="A99" s="38"/>
       <c r="B99"/>
-      <c r="C99" s="48"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="64"/>
+      <c r="E99" s="64"/>
+      <c r="F99" s="64"/>
+      <c r="G99" s="64"/>
+      <c r="H99" s="64"/>
+      <c r="I99" s="64"/>
     </row>
     <row r="100" s="1" customFormat="1" outlineLevel="1" spans="1:9">
-      <c r="A100" s="2"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
+      <c r="A100" s="38"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="64"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="64"/>
+      <c r="H100" s="64"/>
+      <c r="I100" s="64"/>
     </row>
     <row r="101" s="1" customFormat="1" outlineLevel="1" spans="1:9">
-      <c r="A101" s="2"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
+      <c r="A101" s="38"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="64"/>
+      <c r="E101" s="64"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="64"/>
+      <c r="H101" s="64"/>
+      <c r="I101" s="64"/>
     </row>
     <row r="102" s="1" customFormat="1" spans="1:8">
-      <c r="A102" s="2"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
+      <c r="A102" s="38"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="64"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="64"/>
+      <c r="H102" s="64"/>
     </row>
     <row r="103" s="1" customFormat="1" spans="1:1">
-      <c r="A103" s="2"/>
+      <c r="A103" s="38"/>
     </row>
     <row r="104" s="1" customFormat="1" spans="2:2">
-      <c r="B104" s="4"/>
+      <c r="B104" s="39"/>
     </row>
     <row r="105" s="1" customFormat="1"/>
     <row r="106" s="1" customFormat="1"/>
@@ -4585,138 +4538,4 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H1" sqref="G1:H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="140.25" outlineLevel="1" spans="1:10">
-      <c r="A1" s="2" t="e">
-        <f ca="1">IF(OFFSET(A1,-1,0)="",OFFSET(A1,-2,0)+1,OFFSET(A1,-1,0)+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="2"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="140.25" outlineLevel="1" spans="1:10">
-      <c r="A2" s="2" t="e">
-        <f ca="1">IF(OFFSET(A2,-1,0)="",OFFSET(A2,-2,0)+1,OFFSET(A2,-1,0)+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="153" outlineLevel="1" spans="1:10">
-      <c r="A3" s="2" t="e">
-        <f ca="1">IF(OFFSET(A3,-1,0)="",OFFSET(A3,-2,0)+1,OFFSET(A3,-1,0)+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="89.25" outlineLevel="1" spans="1:10">
-      <c r="A4" s="2" t="e">
-        <f ca="1">IF(OFFSET(A4,-1,0)="",OFFSET(A4,-2,0)+1,OFFSET(A4,-1,0)+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="102" outlineLevel="1" spans="1:10">
-      <c r="A5" s="2" t="e">
-        <f ca="1">IF(OFFSET(A5,-1,0)="",OFFSET(A5,-2,0)+1,OFFSET(A5,-1,0)+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" customFormat="1" ht="63.75" spans="2:4">
-      <c r="B6" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" customFormat="1" ht="89.25" spans="2:4">
-      <c r="B7" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" customFormat="1" ht="76.5" spans="2:4">
-      <c r="B8" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Middle_Assignment/Assignment4/Le Thi Hoa_TestCase_4.xlsx
+++ b/Middle_Assignment/Assignment4/Le Thi Hoa_TestCase_4.xlsx
@@ -936,11 +936,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
     <numFmt numFmtId="181" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="36">
@@ -1014,21 +1014,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="明朝"/>
-      <charset val="128"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <u/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1040,13 +1052,93 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7EA1D0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1061,104 +1153,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF7EA1D0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1173,10 +1168,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1186,10 +1188,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="明朝"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1268,13 +1268,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1286,194 +1472,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF800000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFBFBFBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1576,17 +1576,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFC0C0C0"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFC0C0C0"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFC0C0C0"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1602,15 +1611,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1640,6 +1640,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1650,30 +1674,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1706,192 +1706,192 @@
   </borders>
   <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="12"/>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="27" fillId="35" borderId="12">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="40" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="40" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="27" fillId="46" borderId="12"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="33" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7"/>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="36" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="16" borderId="0"/>
-    <xf numFmtId="178" fontId="11" fillId="15" borderId="7"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="13" fillId="2" borderId="0">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="34" fillId="47" borderId="16">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="34" fillId="40" borderId="16">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="48" borderId="16">
+    <xf numFmtId="180" fontId="4" fillId="48" borderId="16">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2161,8 +2161,8 @@
     <cellStyle name="40% - Accent6" xfId="57" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="58" builtinId="52"/>
     <cellStyle name="background 2" xfId="59"/>
-    <cellStyle name="Header" xfId="60"/>
-    <cellStyle name="Normal 2 2" xfId="61"/>
+    <cellStyle name="Normal 2 2" xfId="60"/>
+    <cellStyle name="Header" xfId="61"/>
     <cellStyle name="Hyperlink 2" xfId="62"/>
     <cellStyle name="Hyperlink 3" xfId="63"/>
     <cellStyle name="Normal 2 3" xfId="64"/>
@@ -2512,8 +2512,8 @@
   <sheetPr/>
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>

--- a/Middle_Assignment/Assignment4/Le Thi Hoa_TestCase_4.xlsx
+++ b/Middle_Assignment/Assignment4/Le Thi Hoa_TestCase_4.xlsx
@@ -917,7 +917,7 @@
   </si>
   <si>
     <t>2.1 Save successful and close the add new address screen 
-2.2 Duplicate address are pushed to on the top of Address book (screen)</t>
+2.2 New address are pushed to on the top of Address book (screen)</t>
   </si>
   <si>
     <t>Add multiple address for one person(Same Phone,Name)</t>
@@ -936,11 +936,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="36">
@@ -994,14 +994,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1015,32 +1016,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1052,15 +1037,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1071,32 +1048,16 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1112,7 +1073,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,20 +1130,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1153,7 +1146,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1167,11 +1167,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -1181,17 +1181,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="明朝"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF800000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="明朝"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="49">
     <fill>
@@ -1268,204 +1268,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF800000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor rgb="FFF7A884"/>
       </patternFill>
@@ -1483,7 +1483,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1535,6 +1535,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0CECE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color theme="2" tint="-0.0999786370433668"/>
@@ -1576,30 +1591,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1616,25 +1607,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1657,23 +1639,56 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1706,194 +1721,194 @@
   </borders>
   <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10"/>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="17" borderId="10">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="15" borderId="0"/>
+    <xf numFmtId="178" fontId="12" fillId="46" borderId="10"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="33" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="12"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="27" fillId="35" borderId="12">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="40" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="40" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="27" fillId="46" borderId="12"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="33" fillId="2" borderId="0">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="35" fillId="47" borderId="17">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="34" fillId="47" borderId="16">
+    <xf numFmtId="178" fontId="4" fillId="48" borderId="17">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="48" borderId="16">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2039,40 +2054,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2087,10 +2105,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2161,8 +2179,8 @@
     <cellStyle name="40% - Accent6" xfId="57" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="58" builtinId="52"/>
     <cellStyle name="background 2" xfId="59"/>
-    <cellStyle name="Normal 2 2" xfId="60"/>
-    <cellStyle name="Header" xfId="61"/>
+    <cellStyle name="Header" xfId="60"/>
+    <cellStyle name="Normal 2 2" xfId="61"/>
     <cellStyle name="Hyperlink 2" xfId="62"/>
     <cellStyle name="Hyperlink 3" xfId="63"/>
     <cellStyle name="Normal 2 3" xfId="64"/>
@@ -2512,8 +2530,8 @@
   <sheetPr/>
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>
@@ -2523,7 +2541,7 @@
     <col min="3" max="3" width="25.8571428571429" style="12" customWidth="1"/>
     <col min="4" max="4" width="28.4285714285714" style="12" customWidth="1"/>
     <col min="5" max="5" width="15.5714285714286" style="12" customWidth="1"/>
-    <col min="6" max="6" width="9.28571428571429" style="12" customWidth="1"/>
+    <col min="6" max="6" width="13.2857142857143" style="12" customWidth="1"/>
     <col min="7" max="8" width="9.72380952380952" style="12" customWidth="1"/>
     <col min="9" max="9" width="4.85714285714286" style="12" customWidth="1"/>
     <col min="10" max="1024" width="9.18095238095238" style="12"/>
@@ -2582,7 +2600,7 @@
       <c r="G4" s="25"/>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
-      <c r="J4" s="49"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:10">
       <c r="A5" s="23" t="s">
@@ -2598,7 +2616,7 @@
       <c r="G5" s="25"/>
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
-      <c r="J5" s="49"/>
+      <c r="J5" s="50"/>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:10">
       <c r="A6" s="23" t="s">
@@ -2614,7 +2632,7 @@
       <c r="G6" s="25"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
-      <c r="J6" s="49"/>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:10">
       <c r="A7" s="23" t="s">
@@ -2630,7 +2648,7 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="26"/>
-      <c r="J7" s="49"/>
+      <c r="J7" s="50"/>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:10">
       <c r="A8" s="23" t="s">
@@ -2644,7 +2662,7 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
-      <c r="J8" s="49"/>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:10">
       <c r="A9" s="23" t="s">
@@ -2667,7 +2685,7 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="49"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:10">
       <c r="A10" s="23" t="s">
@@ -2681,7 +2699,7 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="49"/>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:10">
       <c r="A11" s="23" t="s">
@@ -2695,7 +2713,7 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="49"/>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:10">
       <c r="A12" s="23" t="s">
@@ -2709,7 +2727,7 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="49"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:10">
       <c r="A13" s="23" t="s">
@@ -2723,7 +2741,7 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="49"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:10">
       <c r="A14" s="23" t="s">
@@ -2737,7 +2755,7 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="49"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="38.25" spans="1:10">
       <c r="A15" s="23" t="s">
@@ -2751,7 +2769,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="49"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" s="3" customFormat="1" spans="1:10">
       <c r="A16" s="30"/>
@@ -2765,7 +2783,7 @@
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="50"/>
+      <c r="J16" s="51"/>
     </row>
     <row r="17" s="4" customFormat="1" ht="25.5" spans="1:10">
       <c r="A17" s="23" t="s">
@@ -2791,7 +2809,7 @@
       <c r="I17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="51"/>
+      <c r="J17" s="52"/>
     </row>
     <row r="18" s="5" customFormat="1" spans="1:10">
       <c r="A18" s="32"/>
@@ -2805,7 +2823,7 @@
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="52"/>
+      <c r="J18" s="53"/>
     </row>
     <row r="19" s="5" customFormat="1" spans="1:10">
       <c r="A19" s="32"/>
@@ -2819,7 +2837,7 @@
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
-      <c r="J19" s="52"/>
+      <c r="J19" s="53"/>
     </row>
     <row r="20" s="6" customFormat="1" spans="1:10">
       <c r="A20" s="34"/>
@@ -2833,7 +2851,7 @@
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
       <c r="I20" s="37"/>
-      <c r="J20" s="53"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" s="7" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
       <c r="A21" s="38">
@@ -2854,7 +2872,7 @@
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
       <c r="I21" s="39"/>
-      <c r="J21" s="54"/>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
       <c r="A22" s="38">
@@ -2875,7 +2893,7 @@
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
       <c r="I22" s="41"/>
-      <c r="J22" s="55"/>
+      <c r="J22" s="56"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="76.5" outlineLevel="1" spans="1:10">
       <c r="A23" s="38">
@@ -2898,7 +2916,7 @@
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
       <c r="I23" s="41"/>
-      <c r="J23" s="55"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="76.5" outlineLevel="1" spans="1:10">
       <c r="A24" s="38">
@@ -2921,7 +2939,7 @@
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
       <c r="I24" s="41"/>
-      <c r="J24" s="55"/>
+      <c r="J24" s="56"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
       <c r="A25" s="38">
@@ -2944,7 +2962,7 @@
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
       <c r="I25" s="41"/>
-      <c r="J25" s="55"/>
+      <c r="J25" s="56"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="76.5" outlineLevel="1" spans="1:10">
       <c r="A26" s="38">
@@ -2965,7 +2983,7 @@
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
       <c r="I26" s="41"/>
-      <c r="J26" s="55"/>
+      <c r="J26" s="56"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="76.5" outlineLevel="1" spans="1:10">
       <c r="A27" s="38">
@@ -2986,7 +3004,7 @@
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
       <c r="I27" s="41"/>
-      <c r="J27" s="55"/>
+      <c r="J27" s="56"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
       <c r="A28" s="38">
@@ -3007,7 +3025,7 @@
       <c r="G28" s="41"/>
       <c r="H28" s="41"/>
       <c r="I28" s="41"/>
-      <c r="J28" s="55"/>
+      <c r="J28" s="56"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="76.5" outlineLevel="1" spans="1:10">
       <c r="A29" s="38">
@@ -3028,7 +3046,7 @@
       <c r="G29" s="41"/>
       <c r="H29" s="41"/>
       <c r="I29" s="41"/>
-      <c r="J29" s="55"/>
+      <c r="J29" s="56"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="76.5" outlineLevel="1" spans="1:10">
       <c r="A30" s="38">
@@ -3051,7 +3069,7 @@
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
       <c r="I30" s="41"/>
-      <c r="J30" s="55"/>
+      <c r="J30" s="56"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
       <c r="A31" s="38">
@@ -3074,7 +3092,7 @@
       <c r="G31" s="41"/>
       <c r="H31" s="41"/>
       <c r="I31" s="41"/>
-      <c r="J31" s="55"/>
+      <c r="J31" s="56"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
       <c r="A32" s="38">
@@ -3095,7 +3113,7 @@
       <c r="G32" s="41"/>
       <c r="H32" s="41"/>
       <c r="I32" s="41"/>
-      <c r="J32" s="55"/>
+      <c r="J32" s="56"/>
     </row>
     <row r="33" s="8" customFormat="1" spans="1:10">
       <c r="A33" s="43"/>
@@ -3109,7 +3127,7 @@
       <c r="G33" s="36"/>
       <c r="H33" s="36"/>
       <c r="I33" s="36"/>
-      <c r="J33" s="56"/>
+      <c r="J33" s="57"/>
     </row>
     <row r="34" s="7" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
       <c r="A34" s="38">
@@ -3130,7 +3148,7 @@
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
       <c r="I34" s="39"/>
-      <c r="J34" s="54"/>
+      <c r="J34" s="55"/>
     </row>
     <row r="35" s="7" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
       <c r="A35" s="38">
@@ -3151,7 +3169,7 @@
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="54"/>
+      <c r="J35" s="55"/>
     </row>
     <row r="36" s="7" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
       <c r="A36" s="38">
@@ -3167,14 +3185,14 @@
       <c r="D36" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="67" t="s">
+      <c r="E36" s="68" t="s">
         <v>73</v>
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="44"/>
       <c r="H36" s="44"/>
       <c r="I36" s="39"/>
-      <c r="J36" s="54"/>
+      <c r="J36" s="55"/>
     </row>
     <row r="37" s="7" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
       <c r="A37" s="38">
@@ -3187,17 +3205,17 @@
       <c r="C37" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="67" t="s">
+      <c r="E37" s="68" t="s">
         <v>77</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="44"/>
       <c r="H37" s="44"/>
       <c r="I37" s="39"/>
-      <c r="J37" s="54"/>
+      <c r="J37" s="55"/>
     </row>
     <row r="38" s="7" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
       <c r="A38" s="38">
@@ -3213,14 +3231,14 @@
       <c r="D38" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="67" t="s">
+      <c r="E38" s="68" t="s">
         <v>80</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="44"/>
       <c r="H38" s="44"/>
       <c r="I38" s="39"/>
-      <c r="J38" s="54"/>
+      <c r="J38" s="55"/>
     </row>
     <row r="39" s="7" customFormat="1" ht="89.25" outlineLevel="1" spans="1:10">
       <c r="A39" s="38">
@@ -3241,7 +3259,7 @@
       <c r="G39" s="44"/>
       <c r="H39" s="44"/>
       <c r="I39" s="39"/>
-      <c r="J39" s="54"/>
+      <c r="J39" s="55"/>
     </row>
     <row r="40" s="7" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
       <c r="A40" s="38">
@@ -3264,7 +3282,7 @@
       <c r="G40" s="44"/>
       <c r="H40" s="44"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="54"/>
+      <c r="J40" s="55"/>
     </row>
     <row r="41" s="7" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
       <c r="A41" s="38">
@@ -3280,14 +3298,14 @@
       <c r="D41" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="67" t="s">
+      <c r="E41" s="68" t="s">
         <v>80</v>
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="44"/>
       <c r="H41" s="44"/>
       <c r="I41" s="39"/>
-      <c r="J41" s="54"/>
+      <c r="J41" s="55"/>
     </row>
     <row r="42" s="7" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
       <c r="A42" s="38">
@@ -3308,7 +3326,7 @@
       <c r="G42" s="38"/>
       <c r="H42" s="38"/>
       <c r="I42" s="39"/>
-      <c r="J42" s="54"/>
+      <c r="J42" s="55"/>
     </row>
     <row r="43" s="8" customFormat="1" spans="1:10">
       <c r="A43" s="46"/>
@@ -3322,7 +3340,7 @@
       <c r="G43" s="36"/>
       <c r="H43" s="36"/>
       <c r="I43" s="43"/>
-      <c r="J43" s="56"/>
+      <c r="J43" s="57"/>
     </row>
     <row r="44" customFormat="1" ht="51" spans="1:10">
       <c r="A44" s="38">
@@ -3342,8 +3360,8 @@
       <c r="F44" s="47"/>
       <c r="G44" s="47"/>
       <c r="H44" s="47"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="59"/>
     </row>
     <row r="45" customFormat="1" ht="51" spans="1:10">
       <c r="A45" s="38">
@@ -3363,8 +3381,8 @@
       <c r="F45" s="48"/>
       <c r="G45" s="48"/>
       <c r="H45" s="48"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="61"/>
     </row>
     <row r="46" customFormat="1" ht="63.75" spans="1:10">
       <c r="A46" s="38">
@@ -3386,8 +3404,8 @@
       <c r="F46" s="48"/>
       <c r="G46" s="48"/>
       <c r="H46" s="48"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="61"/>
     </row>
     <row r="47" customFormat="1" ht="63.75" spans="1:10">
       <c r="A47" s="38">
@@ -3409,8 +3427,8 @@
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
       <c r="H47" s="48"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="61"/>
     </row>
     <row r="48" customFormat="1" ht="63.75" spans="1:10">
       <c r="A48" s="38">
@@ -3432,8 +3450,8 @@
       <c r="F48" s="48"/>
       <c r="G48" s="48"/>
       <c r="H48" s="48"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="61"/>
     </row>
     <row r="49" customFormat="1" ht="63.75" spans="1:10">
       <c r="A49" s="38">
@@ -3453,8 +3471,8 @@
       <c r="F49" s="48"/>
       <c r="G49" s="48"/>
       <c r="H49" s="48"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="61"/>
     </row>
     <row r="50" customFormat="1" ht="63.75" spans="1:10">
       <c r="A50" s="38">
@@ -3474,8 +3492,8 @@
       <c r="F50" s="48"/>
       <c r="G50" s="48"/>
       <c r="H50" s="48"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="61"/>
     </row>
     <row r="51" customFormat="1" ht="63.75" spans="1:10">
       <c r="A51" s="38">
@@ -3495,8 +3513,8 @@
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
       <c r="H51" s="48"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="61"/>
     </row>
     <row r="52" customFormat="1" ht="76.5" spans="1:10">
       <c r="A52" s="38">
@@ -3516,8 +3534,8 @@
       <c r="F52" s="48"/>
       <c r="G52" s="48"/>
       <c r="H52" s="48"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="61"/>
     </row>
     <row r="53" customFormat="1" ht="76.5" spans="1:10">
       <c r="A53" s="38">
@@ -3539,8 +3557,8 @@
       <c r="F53" s="48"/>
       <c r="G53" s="48"/>
       <c r="H53" s="48"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="61"/>
     </row>
     <row r="54" customFormat="1" ht="63.75" spans="1:10">
       <c r="A54" s="38">
@@ -3560,8 +3578,8 @@
       <c r="F54" s="48"/>
       <c r="G54" s="48"/>
       <c r="H54" s="48"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="61"/>
     </row>
     <row r="55" customFormat="1" ht="25.5" spans="1:10">
       <c r="A55" s="38">
@@ -3581,8 +3599,8 @@
       <c r="F55" s="48"/>
       <c r="G55" s="48"/>
       <c r="H55" s="48"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="61"/>
     </row>
     <row r="56" s="8" customFormat="1" spans="1:10">
       <c r="A56" s="46"/>
@@ -3596,7 +3614,7 @@
       <c r="G56" s="36"/>
       <c r="H56" s="36"/>
       <c r="I56" s="43"/>
-      <c r="J56" s="56"/>
+      <c r="J56" s="57"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
       <c r="A57" s="38">
@@ -3617,7 +3635,7 @@
       <c r="G57" s="38"/>
       <c r="H57" s="38"/>
       <c r="I57" s="41"/>
-      <c r="J57" s="55"/>
+      <c r="J57" s="56"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
       <c r="A58" s="38">
@@ -3634,11 +3652,11 @@
         <v>131</v>
       </c>
       <c r="E58" s="39"/>
-      <c r="F58" s="38"/>
+      <c r="F58" s="49"/>
       <c r="G58" s="38"/>
       <c r="H58" s="38"/>
       <c r="I58" s="41"/>
-      <c r="J58" s="55"/>
+      <c r="J58" s="56"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
       <c r="A59" s="38">
@@ -3659,7 +3677,7 @@
       <c r="G59" s="38"/>
       <c r="H59" s="38"/>
       <c r="I59" s="41"/>
-      <c r="J59" s="55"/>
+      <c r="J59" s="56"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="25.5" outlineLevel="1" spans="1:10">
       <c r="A60" s="38">
@@ -3680,7 +3698,7 @@
       <c r="G60" s="38"/>
       <c r="H60" s="38"/>
       <c r="I60" s="41"/>
-      <c r="J60" s="55"/>
+      <c r="J60" s="56"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
       <c r="A61" s="38">
@@ -3701,7 +3719,7 @@
       <c r="G61" s="38"/>
       <c r="H61" s="38"/>
       <c r="I61" s="41"/>
-      <c r="J61" s="55"/>
+      <c r="J61" s="56"/>
     </row>
     <row r="62" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
       <c r="A62" s="38">
@@ -3722,7 +3740,7 @@
       <c r="G62" s="38"/>
       <c r="H62" s="38"/>
       <c r="I62" s="41"/>
-      <c r="J62" s="55"/>
+      <c r="J62" s="56"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
       <c r="A63" s="38">
@@ -3743,7 +3761,7 @@
       <c r="G63" s="38"/>
       <c r="H63" s="38"/>
       <c r="I63" s="41"/>
-      <c r="J63" s="55"/>
+      <c r="J63" s="56"/>
     </row>
     <row r="64" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
       <c r="A64" s="38">
@@ -3764,7 +3782,7 @@
       <c r="G64" s="38"/>
       <c r="H64" s="38"/>
       <c r="I64" s="41"/>
-      <c r="J64" s="55"/>
+      <c r="J64" s="56"/>
     </row>
     <row r="65" s="8" customFormat="1" spans="1:10">
       <c r="A65" s="46"/>
@@ -3778,7 +3796,7 @@
       <c r="G65" s="36"/>
       <c r="H65" s="36"/>
       <c r="I65" s="43"/>
-      <c r="J65" s="56"/>
+      <c r="J65" s="57"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
       <c r="A66" s="38">
@@ -3799,7 +3817,7 @@
       <c r="G66" s="38"/>
       <c r="H66" s="38"/>
       <c r="I66" s="41"/>
-      <c r="J66" s="55"/>
+      <c r="J66" s="56"/>
     </row>
     <row r="67" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
       <c r="A67" s="38">
@@ -3820,7 +3838,7 @@
       <c r="G67" s="38"/>
       <c r="H67" s="38"/>
       <c r="I67" s="41"/>
-      <c r="J67" s="55"/>
+      <c r="J67" s="56"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
       <c r="A68" s="38">
@@ -3841,7 +3859,7 @@
       <c r="G68" s="38"/>
       <c r="H68" s="38"/>
       <c r="I68" s="41"/>
-      <c r="J68" s="55"/>
+      <c r="J68" s="56"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
       <c r="A69" s="38">
@@ -3862,7 +3880,7 @@
       <c r="G69" s="38"/>
       <c r="H69" s="38"/>
       <c r="I69" s="41"/>
-      <c r="J69" s="55"/>
+      <c r="J69" s="56"/>
     </row>
     <row r="70" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
       <c r="A70" s="38">
@@ -3883,7 +3901,7 @@
       <c r="G70" s="38"/>
       <c r="H70" s="38"/>
       <c r="I70" s="41"/>
-      <c r="J70" s="55"/>
+      <c r="J70" s="56"/>
     </row>
     <row r="71" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
       <c r="A71" s="38">
@@ -3904,7 +3922,7 @@
       <c r="G71" s="38"/>
       <c r="H71" s="38"/>
       <c r="I71" s="41"/>
-      <c r="J71" s="55"/>
+      <c r="J71" s="56"/>
     </row>
     <row r="72" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
       <c r="A72" s="38">
@@ -3925,7 +3943,7 @@
       <c r="G72" s="38"/>
       <c r="H72" s="38"/>
       <c r="I72" s="41"/>
-      <c r="J72" s="55"/>
+      <c r="J72" s="56"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
       <c r="A73" s="38">
@@ -3946,14 +3964,14 @@
       <c r="G73" s="38"/>
       <c r="H73" s="38"/>
       <c r="I73" s="41"/>
-      <c r="J73" s="55"/>
+      <c r="J73" s="56"/>
     </row>
     <row r="74" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
       <c r="A74" s="38">
         <f ca="1" t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="B74" s="61" t="s">
+      <c r="B74" s="62" t="s">
         <v>173</v>
       </c>
       <c r="C74" s="38" t="s">
@@ -3967,7 +3985,7 @@
       <c r="G74" s="38"/>
       <c r="H74" s="38"/>
       <c r="I74" s="41"/>
-      <c r="J74" s="55"/>
+      <c r="J74" s="56"/>
     </row>
     <row r="75" s="9" customFormat="1" ht="38.25" spans="1:10">
       <c r="A75" s="38">
@@ -3988,7 +4006,7 @@
       <c r="G75" s="40"/>
       <c r="H75" s="40"/>
       <c r="I75" s="44"/>
-      <c r="J75" s="65"/>
+      <c r="J75" s="66"/>
     </row>
     <row r="76" s="8" customFormat="1" spans="1:10">
       <c r="A76" s="46"/>
@@ -4002,7 +4020,7 @@
       <c r="G76" s="36"/>
       <c r="H76" s="36"/>
       <c r="I76" s="43"/>
-      <c r="J76" s="56"/>
+      <c r="J76" s="57"/>
     </row>
     <row r="77" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
       <c r="A77" s="38">
@@ -4023,7 +4041,7 @@
       <c r="G77" s="38"/>
       <c r="H77" s="38"/>
       <c r="I77" s="41"/>
-      <c r="J77" s="55"/>
+      <c r="J77" s="56"/>
     </row>
     <row r="78" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
       <c r="A78" s="38">
@@ -4044,7 +4062,7 @@
       <c r="G78" s="38"/>
       <c r="H78" s="38"/>
       <c r="I78" s="41"/>
-      <c r="J78" s="55"/>
+      <c r="J78" s="56"/>
     </row>
     <row r="79" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
       <c r="A79" s="38">
@@ -4065,7 +4083,7 @@
       <c r="G79" s="38"/>
       <c r="H79" s="38"/>
       <c r="I79" s="41"/>
-      <c r="J79" s="55"/>
+      <c r="J79" s="56"/>
     </row>
     <row r="80" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
       <c r="A80" s="38">
@@ -4086,7 +4104,7 @@
       <c r="G80" s="38"/>
       <c r="H80" s="38"/>
       <c r="I80" s="41"/>
-      <c r="J80" s="55"/>
+      <c r="J80" s="56"/>
     </row>
     <row r="81" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
       <c r="A81" s="38">
@@ -4107,7 +4125,7 @@
       <c r="G81" s="38"/>
       <c r="H81" s="38"/>
       <c r="I81" s="41"/>
-      <c r="J81" s="55"/>
+      <c r="J81" s="56"/>
     </row>
     <row r="82" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
       <c r="A82" s="38">
@@ -4128,7 +4146,7 @@
       <c r="G82" s="38"/>
       <c r="H82" s="38"/>
       <c r="I82" s="41"/>
-      <c r="J82" s="55"/>
+      <c r="J82" s="56"/>
     </row>
     <row r="83" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
       <c r="A83" s="38">
@@ -4149,7 +4167,7 @@
       <c r="G83" s="38"/>
       <c r="H83" s="38"/>
       <c r="I83" s="41"/>
-      <c r="J83" s="55"/>
+      <c r="J83" s="56"/>
     </row>
     <row r="84" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
       <c r="A84" s="38">
@@ -4170,7 +4188,7 @@
       <c r="G84" s="38"/>
       <c r="H84" s="38"/>
       <c r="I84" s="41"/>
-      <c r="J84" s="55"/>
+      <c r="J84" s="56"/>
     </row>
     <row r="85" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
       <c r="A85" s="38">
@@ -4191,7 +4209,7 @@
       <c r="G85" s="38"/>
       <c r="H85" s="38"/>
       <c r="I85" s="41"/>
-      <c r="J85" s="55"/>
+      <c r="J85" s="56"/>
     </row>
     <row r="86" s="1" customFormat="1" ht="102" outlineLevel="1" spans="1:10">
       <c r="A86" s="38">
@@ -4212,7 +4230,7 @@
       <c r="G86" s="38"/>
       <c r="H86" s="38"/>
       <c r="I86" s="41"/>
-      <c r="J86" s="55"/>
+      <c r="J86" s="56"/>
     </row>
     <row r="87" s="8" customFormat="1" spans="1:10">
       <c r="A87" s="46"/>
@@ -4226,7 +4244,7 @@
       <c r="G87" s="36"/>
       <c r="H87" s="36"/>
       <c r="I87" s="43"/>
-      <c r="J87" s="56"/>
+      <c r="J87" s="57"/>
     </row>
     <row r="88" s="9" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
       <c r="A88" s="38">
@@ -4247,7 +4265,7 @@
       <c r="G88" s="40"/>
       <c r="H88" s="40"/>
       <c r="I88" s="44"/>
-      <c r="J88" s="65"/>
+      <c r="J88" s="66"/>
     </row>
     <row r="89" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
       <c r="A89" s="38">
@@ -4268,7 +4286,7 @@
       <c r="G89" s="41"/>
       <c r="H89" s="41"/>
       <c r="I89" s="41"/>
-      <c r="J89" s="55"/>
+      <c r="J89" s="56"/>
     </row>
     <row r="90" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
       <c r="A90" s="38">
@@ -4289,21 +4307,21 @@
       <c r="G90" s="41"/>
       <c r="H90" s="41"/>
       <c r="I90" s="41"/>
-      <c r="J90" s="55"/>
+      <c r="J90" s="56"/>
     </row>
     <row r="91" s="10" customFormat="1" spans="1:10">
-      <c r="A91" s="62"/>
+      <c r="A91" s="63"/>
       <c r="B91" s="33" t="s">
         <v>218</v>
       </c>
       <c r="C91" s="33"/>
       <c r="D91" s="33"/>
-      <c r="E91" s="63"/>
-      <c r="F91" s="63"/>
-      <c r="G91" s="63"/>
-      <c r="H91" s="63"/>
-      <c r="I91" s="63"/>
-      <c r="J91" s="66"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="64"/>
+      <c r="H91" s="64"/>
+      <c r="I91" s="64"/>
+      <c r="J91" s="67"/>
     </row>
     <row r="92" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
       <c r="A92" s="38">
@@ -4324,7 +4342,7 @@
       <c r="G92" s="41"/>
       <c r="H92" s="41"/>
       <c r="I92" s="41"/>
-      <c r="J92" s="55"/>
+      <c r="J92" s="56"/>
     </row>
     <row r="93" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
       <c r="A93" s="38">
@@ -4345,7 +4363,7 @@
       <c r="G93" s="41"/>
       <c r="H93" s="41"/>
       <c r="I93" s="41"/>
-      <c r="J93" s="55"/>
+      <c r="J93" s="56"/>
     </row>
     <row r="94" s="1" customFormat="1" ht="51" outlineLevel="1" spans="1:10">
       <c r="A94" s="38">
@@ -4366,7 +4384,7 @@
       <c r="G94" s="41"/>
       <c r="H94" s="41"/>
       <c r="I94" s="41"/>
-      <c r="J94" s="55"/>
+      <c r="J94" s="56"/>
     </row>
     <row r="95" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
       <c r="A95" s="38">
@@ -4387,7 +4405,7 @@
       <c r="G95" s="41"/>
       <c r="H95" s="41"/>
       <c r="I95" s="41"/>
-      <c r="J95" s="55"/>
+      <c r="J95" s="56"/>
     </row>
     <row r="96" s="1" customFormat="1" ht="38.25" outlineLevel="1" spans="1:10">
       <c r="A96" s="38">
@@ -4408,7 +4426,7 @@
       <c r="G96" s="41"/>
       <c r="H96" s="41"/>
       <c r="I96" s="41"/>
-      <c r="J96" s="55"/>
+      <c r="J96" s="56"/>
     </row>
     <row r="97" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:10">
       <c r="A97" s="38">
@@ -4429,7 +4447,7 @@
       <c r="G97" s="41"/>
       <c r="H97" s="41"/>
       <c r="I97" s="41"/>
-      <c r="J97" s="55"/>
+      <c r="J97" s="56"/>
     </row>
     <row r="98" s="1" customFormat="1" ht="63.75" outlineLevel="1" spans="1:9">
       <c r="A98" s="38">
@@ -4455,41 +4473,41 @@
       <c r="A99" s="38"/>
       <c r="B99"/>
       <c r="C99" s="44"/>
-      <c r="D99" s="64"/>
-      <c r="E99" s="64"/>
-      <c r="F99" s="64"/>
-      <c r="G99" s="64"/>
-      <c r="H99" s="64"/>
-      <c r="I99" s="64"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="65"/>
+      <c r="F99" s="65"/>
+      <c r="G99" s="65"/>
+      <c r="H99" s="65"/>
+      <c r="I99" s="65"/>
     </row>
     <row r="100" s="1" customFormat="1" outlineLevel="1" spans="1:9">
       <c r="A100" s="38"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="64"/>
-      <c r="E100" s="64"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="64"/>
-      <c r="H100" s="64"/>
-      <c r="I100" s="64"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="65"/>
+      <c r="H100" s="65"/>
+      <c r="I100" s="65"/>
     </row>
     <row r="101" s="1" customFormat="1" outlineLevel="1" spans="1:9">
       <c r="A101" s="38"/>
-      <c r="C101" s="64"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="64"/>
-      <c r="F101" s="64"/>
-      <c r="G101" s="64"/>
-      <c r="H101" s="64"/>
-      <c r="I101" s="64"/>
+      <c r="C101" s="65"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="65"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="65"/>
+      <c r="H101" s="65"/>
+      <c r="I101" s="65"/>
     </row>
     <row r="102" s="1" customFormat="1" spans="1:8">
       <c r="A102" s="38"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="64"/>
-      <c r="E102" s="64"/>
-      <c r="F102" s="64"/>
-      <c r="G102" s="64"/>
-      <c r="H102" s="64"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="65"/>
+      <c r="F102" s="65"/>
+      <c r="G102" s="65"/>
+      <c r="H102" s="65"/>
     </row>
     <row r="103" s="1" customFormat="1" spans="1:1">
       <c r="A103" s="38"/>

--- a/Middle_Assignment/Assignment4/Le Thi Hoa_TestCase_4.xlsx
+++ b/Middle_Assignment/Assignment4/Le Thi Hoa_TestCase_4.xlsx
@@ -936,11 +936,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="36">
@@ -996,7 +996,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1011,21 +1019,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1036,11 +1038,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1064,12 +1065,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1096,12 +1101,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1110,7 +1109,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,15 +1122,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7EA1D0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1146,14 +1139,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1167,11 +1160,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <color rgb="FF7EA1D0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1181,17 +1181,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="明朝"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF800000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="明朝"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="49">
     <fill>
@@ -1268,37 +1268,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF800000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1310,157 +1442,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,6 +1591,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1606,17 +1615,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1639,32 +1657,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1684,11 +1678,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1721,192 +1721,192 @@
   </borders>
   <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10"/>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="17" borderId="10">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12"/>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="24" borderId="12">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="15" borderId="0"/>
-    <xf numFmtId="178" fontId="12" fillId="46" borderId="10"/>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="23" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="19" fillId="46" borderId="12"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="33" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="33" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="35" fillId="47" borderId="17">
+    <xf numFmtId="176" fontId="34" fillId="47" borderId="17">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="48" borderId="17">
+    <xf numFmtId="176" fontId="4" fillId="48" borderId="17">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2179,8 +2179,8 @@
     <cellStyle name="40% - Accent6" xfId="57" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="58" builtinId="52"/>
     <cellStyle name="background 2" xfId="59"/>
-    <cellStyle name="Header" xfId="60"/>
-    <cellStyle name="Normal 2 2" xfId="61"/>
+    <cellStyle name="Normal 2 2" xfId="60"/>
+    <cellStyle name="Header" xfId="61"/>
     <cellStyle name="Hyperlink 2" xfId="62"/>
     <cellStyle name="Hyperlink 3" xfId="63"/>
     <cellStyle name="Normal 2 3" xfId="64"/>
@@ -2530,8 +2530,8 @@
   <sheetPr/>
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58:G59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>
@@ -2785,7 +2785,7 @@
       <c r="I16" s="30"/>
       <c r="J16" s="51"/>
     </row>
-    <row r="17" s="4" customFormat="1" ht="25.5" spans="1:10">
+    <row r="17" s="4" customFormat="1" spans="1:10">
       <c r="A17" s="23" t="s">
         <v>17</v>
       </c>

--- a/Middle_Assignment/Assignment4/Le Thi Hoa_TestCase_4.xlsx
+++ b/Middle_Assignment/Assignment4/Le Thi Hoa_TestCase_4.xlsx
@@ -936,10 +936,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -993,6 +993,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1000,17 +1008,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1023,30 +1022,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
     </font>
     <font>
       <u/>
@@ -1057,35 +1038,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1101,7 +1087,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1109,29 +1095,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1145,8 +1116,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1161,7 +1154,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1172,6 +1165,13 @@
       <color rgb="FF7EA1D0"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -1268,13 +1268,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFF7A884"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1286,188 +1466,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF800000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFF7A884"/>
       </patternFill>
     </fill>
     <fill>
@@ -1591,11 +1591,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1639,41 +1669,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1724,189 +1724,189 @@
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="17" borderId="9">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="30" borderId="0"/>
+    <xf numFmtId="178" fontId="14" fillId="39" borderId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="33" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12"/>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="24" borderId="12">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="19" fillId="46" borderId="12"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="33" fillId="2" borderId="0">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="34" fillId="47" borderId="17">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="34" fillId="47" borderId="17">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="48" borderId="17">
+    <xf numFmtId="178" fontId="4" fillId="48" borderId="17">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2179,8 +2179,8 @@
     <cellStyle name="40% - Accent6" xfId="57" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="58" builtinId="52"/>
     <cellStyle name="background 2" xfId="59"/>
-    <cellStyle name="Normal 2 2" xfId="60"/>
-    <cellStyle name="Header" xfId="61"/>
+    <cellStyle name="Header" xfId="60"/>
+    <cellStyle name="Normal 2 2" xfId="61"/>
     <cellStyle name="Hyperlink 2" xfId="62"/>
     <cellStyle name="Hyperlink 3" xfId="63"/>
     <cellStyle name="Normal 2 3" xfId="64"/>
@@ -2530,8 +2530,8 @@
   <sheetPr/>
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>
